--- a/dataset_train_transformer-v2.xlsx
+++ b/dataset_train_transformer-v2.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qiqilu\Project\2024 Foundation model\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94C23236-049A-40C0-A99E-D35ADFCDBA0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB4995-2B46-4EEE-A663-3DD560DBE152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="64x64" sheetId="1" r:id="rId1"/>
     <sheet name="64x64-aug" sheetId="6" r:id="rId2"/>
+    <sheet name="64x64-finetune" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'64x64'!$A$1:$X$479</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9837" uniqueCount="910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="1062">
   <si>
     <t>path_lr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2931,6 +2932,582 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellpose3-2photon-dn-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellpose-2photon-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpsam</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>neuron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unknown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mice brain cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cortical neuron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>two-photon mesoscope</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>316 x 316 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellpose3-2photon-dn-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellpose-2photon-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cortical neuron</t>
+  </si>
+  <si>
+    <t>cellpose3-2photon-dn-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellpose-2photon-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cellpose3-2photon-dn-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cellpose-2photon-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataset-name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seg_model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>in#ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of images</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>number of images (eva)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>path_mask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\Cellpose3\transformed\two-photon\train\channel_0\two_photon_ave_1_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\Cellpose3\transformed\two-photon\train\channel_0\two_photon_ave_4_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\Cellpose3\transformed\two-photon\train\channel_0\two_photon_ave_16_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\Cellpose3\transformed\two-photon\train\channel_0\two_photon_ave_64_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\Cellpose3\transformed\two-photon\train\channel_0\two_photon_ave_300_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\Cellpose3\transformed\two-photon\train_p64_s64_2d-6.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mt-sr-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-MT-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nellie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ft</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live COS-7 cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mEmerald (green)</t>
+  </si>
+  <si>
+    <t>wide-field microscope with excitation numerical aperture of 1.35, excitation wavelength is 488 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with excitation numerical aperture (NA) of 1.35.</t>
+  </si>
+  <si>
+    <t>60.4 x 60.4 nm. Nearest interpolation with a factor of 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear structured illumination microscope (SIM) with excitation numerical aperture of 1.35, excitation wavelength is 488 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30.2 x 30.2 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mt-sr-2</t>
+  </si>
+  <si>
+    <t>BioTISR-MT-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mt-sr-3</t>
+  </si>
+  <si>
+    <t>BioTISR-MT-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mito-sr-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-Mito-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mito</t>
+  </si>
+  <si>
+    <t>biotisr-mito-sr-2</t>
+  </si>
+  <si>
+    <t>BioTISR-Mito-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mito-sr-3</t>
+  </si>
+  <si>
+    <t>BioTISR-Mito-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-factin-nonlinear-sr-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-F-actin-NL-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>super-resolution with a scale factor of 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skylan-NS (green)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wide-field microscope with excitation numerical aperture of 1.41, excitation wavelength is 488 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>with excitation numerical aperture (NA) of 1.41.</t>
+  </si>
+  <si>
+    <t>60.4 x 60.4 nm. Nearest interpolation with a factor of 3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>non-linear structured illumination microscope (SIM) with excitation numerical aperture of 1.41, excitation wavelength is 488 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.1 x 20.1 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-factin-nonlinear-sr-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-F-actin-NL-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-factin-nonlinear-sr-3</t>
+  </si>
+  <si>
+    <t>BioTISR-F-actin-NL-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-CCP-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>live SUM-159 cell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear structured illumination microscope (SIM) with excitation numerical aperture of 1.41, excitation wavelength is 488 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-CCP-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-CCP-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-factin-sr-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-F-actin-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-factin-sr-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-F-actin-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-factin-sr-3</t>
+  </si>
+  <si>
+    <t>BioTISR-F-actin-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BioTISR-lysosome-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>yellow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wide-field microscope with excitation numerical aperture of 1.35, excitation wavelength is 561 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>linear structured illumination microscope (SIM) with excitation numerical aperture of 1.35, excitation wavelength is 561 nm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-2</t>
+  </si>
+  <si>
+    <t>BioTISR-lysosome-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-3</t>
+  </si>
+  <si>
+    <t>BioTISR-lysosome-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>\</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train\channel_0\WF_noise_level_1_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train\channel_0\WF_noise_level_2_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train\channel_0\WF_noise_level_3_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train\channel_0\SIM_2d_p64_s64_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train_2d_p32_s32_2d_1.txt</t>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train_2d_p32_s32_2d_2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Microtubules\train\channel_0\WF_noise_level_1_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Microtubules\train\channel_0\WF_noise_level_2_2d_p32_s32_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Microtubules\train\channel_0\WF_noise_level_3_2d_p32_s32_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Mitochondria\train\channel_0\WF_noise_level_1_2d_p32_s32_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Mitochondria\train\channel_0\WF_noise_level_2_2d_p32_s32_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Mitochondria\train\channel_0\WF_noise_level_3_2d_p32_s32_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin_nonlinear\train\channel_0\WF_noise_level_1_2d_up3_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin_nonlinear\train\channel_0\WF_noise_level_2_2d_up3_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin_nonlinear\train\channel_0\WF_noise_level_3_2d_up3_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Microtubules\train\channel_0\SIM_2d_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Microtubules\train_2d_p32_s32_2d_1.txt</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Mitochondria\train\channel_0\SIM_2d_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Mitochondria\train_2d_p32_s32_2d_1.txt</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin_nonlinear\train\channel_0\SIM_2d_p64_s64_2d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin_nonlinear\train_2d_p64_s64_2d_1.txt</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin\train\channel_0\WF_noise_level_1_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin\train\channel_0\WF_noise_level_2_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin\train\channel_0\WF_noise_level_3_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin\train\channel_0\SIM_2d_p64_s64_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\F-actin\train_2d_p32_s32_2d_1.txt</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train\channel_0\WF_noise_level_1_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train\channel_0\WF_noise_level_2_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train\channel_0\WF_noise_level_3_2d_p32_s32_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train\channel_0\SIM_2d_p64_s64_2d</t>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_1.txt</t>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mt-sr-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mt-sr-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mt-sr-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Microtubules\train_2d_p32_s32_2d_2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mito-sr-1-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mito-sr-2-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-mito-sr-3-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Mitochondria\train_2d_p32_s32_2d_2.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-2-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train_2d_p32_s32_2d_4.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train_2d_p32_s32_2d_8.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-1-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-1-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-2-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-2-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-3-4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-3-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_4.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_8.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2941,7 +3518,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3003,6 +3580,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -3036,7 +3621,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3088,11 +3673,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -3214,11 +3819,2610 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
+  <dxfs count="379">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4069,9 +7273,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X479"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A443" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U159" sqref="U159"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -38762,122 +41966,122 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F480:F1048576 F1:F478">
-    <cfRule type="containsText" dxfId="79" priority="121" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="378" priority="121" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="124" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="376" priority="125" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="76" priority="126" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="375" priority="126" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="75" priority="61" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="374" priority="61" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F195)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="373" priority="62" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="63" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="72" priority="64" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="371" priority="64" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200">
-    <cfRule type="containsText" dxfId="71" priority="57" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="370" priority="57" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F200)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="369" priority="58" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="59" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="68" priority="60" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="367" priority="60" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205">
-    <cfRule type="containsText" dxfId="67" priority="53" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="366" priority="53" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F205)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="365" priority="54" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="55" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="64" priority="56" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="363" priority="56" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="containsText" dxfId="63" priority="45" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="362" priority="45" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F210)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="46" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="47" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="48" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="359" priority="48" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215">
-    <cfRule type="containsText" dxfId="59" priority="41" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="358" priority="41" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F215)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="42" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="43" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="56" priority="44" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="355" priority="44" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F220">
-    <cfRule type="containsText" dxfId="55" priority="33" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="354" priority="33" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F220)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="34" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="35" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="36" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="351" priority="36" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C473:C479">
-    <cfRule type="cellIs" dxfId="51" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="7" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="8" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F479">
-    <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="348" priority="9" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F479)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="10" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="11" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="46" priority="12" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="345" priority="12" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F479)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -38890,8 +42094,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{572DB313-1FF7-42C3-8909-6BC0F84BF5DF}">
   <dimension ref="A1:X89"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -45300,167 +48504,5219 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F67">
-    <cfRule type="containsText" dxfId="45" priority="93" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="344" priority="93" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="94" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="95" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="96" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="341" priority="96" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="41" priority="43" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="340" priority="43" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="339" priority="44" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="45" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="46" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="337" priority="46" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="37" priority="39" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="336" priority="39" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F59)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="40" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="41" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="42" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="333" priority="42" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="332" priority="35" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="36" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="330" priority="37" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="329" priority="38" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C67">
-    <cfRule type="cellIs" dxfId="29" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="33" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="327" priority="34" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F70">
-    <cfRule type="containsText" dxfId="27" priority="25" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="326" priority="25" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F68)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="26" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="27" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="28" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="323" priority="28" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F75">
-    <cfRule type="containsText" dxfId="23" priority="21" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="322" priority="21" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F71)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="321" priority="22" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="320" priority="23" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="24" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="319" priority="24" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="318" priority="17" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F75)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="317" priority="18" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="316" priority="19" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="315" priority="20" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F83">
-    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="314" priority="13" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F76)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="313" priority="14" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="312" priority="15" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="311" priority="16" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F85">
-    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="310" priority="9" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F84)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="309" priority="10" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="308" priority="11" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="307" priority="12" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:F87">
-    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="306" priority="5" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F86)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="305" priority="6" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="304" priority="7" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="303" priority="8" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F89">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="302" priority="1" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F88)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="301" priority="2" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="300" priority="3" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="299" priority="4" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A163AA7F-4DF5-48A0-AE09-D011016C5669}">
+  <dimension ref="A1:AC47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="24.625" customWidth="1"/>
+    <col min="3" max="3" width="20.75" customWidth="1"/>
+    <col min="5" max="5" width="5.25" customWidth="1"/>
+    <col min="6" max="6" width="5.375" customWidth="1"/>
+    <col min="7" max="7" width="4.125" customWidth="1"/>
+    <col min="10" max="10" width="5.375" customWidth="1"/>
+    <col min="11" max="11" width="5.625" customWidth="1"/>
+    <col min="17" max="17" width="75" customWidth="1"/>
+    <col min="18" max="18" width="10.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>926</v>
+      </c>
+      <c r="D1" t="s">
+        <v>927</v>
+      </c>
+      <c r="E1" t="s">
+        <v>928</v>
+      </c>
+      <c r="F1" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>929</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" t="s">
+        <v>930</v>
+      </c>
+      <c r="M1" t="s">
+        <v>931</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>932</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="S1" t="s">
+        <v>90</v>
+      </c>
+      <c r="T1" s="28" t="s">
+        <v>132</v>
+      </c>
+      <c r="U1" t="s">
+        <v>152</v>
+      </c>
+      <c r="V1" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="112" t="s">
+        <v>745</v>
+      </c>
+      <c r="X1" s="113" t="s">
+        <v>746</v>
+      </c>
+      <c r="Y1" s="25" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AA1" s="112" t="s">
+        <v>756</v>
+      </c>
+      <c r="AB1" s="50" t="s">
+        <v>819</v>
+      </c>
+      <c r="AC1" s="25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="101">
+        <v>0</v>
+      </c>
+      <c r="B2" s="102" t="s">
+        <v>910</v>
+      </c>
+      <c r="C2" s="102" t="s">
+        <v>911</v>
+      </c>
+      <c r="D2" s="102" t="s">
+        <v>912</v>
+      </c>
+      <c r="E2" s="103" t="s">
+        <v>996</v>
+      </c>
+      <c r="F2" s="103" t="s">
+        <v>996</v>
+      </c>
+      <c r="G2" s="104">
+        <v>2</v>
+      </c>
+      <c r="H2" s="101" t="s">
+        <v>913</v>
+      </c>
+      <c r="I2" s="101" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="105">
+        <v>1</v>
+      </c>
+      <c r="K2" s="106">
+        <v>1</v>
+      </c>
+      <c r="L2" s="107">
+        <v>1</v>
+      </c>
+      <c r="N2" s="107" t="s">
+        <v>933</v>
+      </c>
+      <c r="O2" s="96" t="s">
+        <v>936</v>
+      </c>
+      <c r="P2" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q2" s="107" t="s">
+        <v>938</v>
+      </c>
+      <c r="R2" s="108" t="s">
+        <v>96</v>
+      </c>
+      <c r="S2" s="101" t="s">
+        <v>915</v>
+      </c>
+      <c r="T2" s="108" t="s">
+        <v>916</v>
+      </c>
+      <c r="U2" s="101" t="s">
+        <v>909</v>
+      </c>
+      <c r="W2" s="108" t="s">
+        <v>917</v>
+      </c>
+      <c r="X2" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y2" s="109" t="s">
+        <v>918</v>
+      </c>
+      <c r="AA2" s="108" t="s">
+        <v>917</v>
+      </c>
+      <c r="AB2" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC2" s="107" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" s="114">
+        <v>1</v>
+      </c>
+      <c r="B3" s="110" t="s">
+        <v>919</v>
+      </c>
+      <c r="C3" s="110" t="s">
+        <v>920</v>
+      </c>
+      <c r="D3" s="110" t="s">
+        <v>912</v>
+      </c>
+      <c r="E3" s="125" t="s">
+        <v>996</v>
+      </c>
+      <c r="F3" s="111" t="s">
+        <v>996</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="22">
+        <v>1</v>
+      </c>
+      <c r="K3" s="12">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>934</v>
+      </c>
+      <c r="O3" s="96" t="s">
+        <v>936</v>
+      </c>
+      <c r="P3" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q3" s="96" t="s">
+        <v>938</v>
+      </c>
+      <c r="R3" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="T3" s="28" t="s">
+        <v>921</v>
+      </c>
+      <c r="U3" s="114" t="s">
+        <v>909</v>
+      </c>
+      <c r="W3" s="115" t="s">
+        <v>917</v>
+      </c>
+      <c r="X3" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y3" s="115" t="s">
+        <v>918</v>
+      </c>
+      <c r="Z3" s="96"/>
+      <c r="AA3" s="115" t="s">
+        <v>917</v>
+      </c>
+      <c r="AB3" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4" s="114">
+        <v>2</v>
+      </c>
+      <c r="B4" s="110" t="s">
+        <v>922</v>
+      </c>
+      <c r="C4" s="110" t="s">
+        <v>923</v>
+      </c>
+      <c r="D4" s="110" t="s">
+        <v>912</v>
+      </c>
+      <c r="E4" s="125" t="s">
+        <v>996</v>
+      </c>
+      <c r="F4" s="111" t="s">
+        <v>996</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>913</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="12">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>935</v>
+      </c>
+      <c r="O4" s="96" t="s">
+        <v>936</v>
+      </c>
+      <c r="P4" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q4" s="96" t="s">
+        <v>938</v>
+      </c>
+      <c r="R4" s="115" t="s">
+        <v>96</v>
+      </c>
+      <c r="S4" s="6" t="s">
+        <v>915</v>
+      </c>
+      <c r="T4" s="28" t="s">
+        <v>916</v>
+      </c>
+      <c r="U4" s="114" t="s">
+        <v>909</v>
+      </c>
+      <c r="W4" s="115" t="s">
+        <v>917</v>
+      </c>
+      <c r="X4" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y4" s="115" t="s">
+        <v>918</v>
+      </c>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="115" t="s">
+        <v>917</v>
+      </c>
+      <c r="AB4" s="96" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="114">
+        <v>3</v>
+      </c>
+      <c r="B5" s="116" t="s">
+        <v>924</v>
+      </c>
+      <c r="C5" s="116" t="s">
+        <v>925</v>
+      </c>
+      <c r="D5" s="116" t="s">
+        <v>912</v>
+      </c>
+      <c r="E5" s="125" t="s">
+        <v>996</v>
+      </c>
+      <c r="F5" s="117" t="s">
+        <v>996</v>
+      </c>
+      <c r="G5" s="118">
+        <v>2</v>
+      </c>
+      <c r="H5" s="74" t="s">
+        <v>913</v>
+      </c>
+      <c r="I5" s="74" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="119">
+        <v>1</v>
+      </c>
+      <c r="K5" s="120">
+        <v>1</v>
+      </c>
+      <c r="L5" s="73">
+        <v>1</v>
+      </c>
+      <c r="N5" s="73" t="s">
+        <v>936</v>
+      </c>
+      <c r="O5" s="73" t="s">
+        <v>937</v>
+      </c>
+      <c r="P5" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q5" s="73" t="s">
+        <v>938</v>
+      </c>
+      <c r="R5" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="S5" s="74" t="s">
+        <v>915</v>
+      </c>
+      <c r="T5" s="123" t="s">
+        <v>916</v>
+      </c>
+      <c r="U5" s="74" t="s">
+        <v>909</v>
+      </c>
+      <c r="W5" s="123" t="s">
+        <v>917</v>
+      </c>
+      <c r="X5" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="Y5" s="122" t="s">
+        <v>918</v>
+      </c>
+      <c r="AA5" s="123" t="s">
+        <v>917</v>
+      </c>
+      <c r="AB5" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="AC5" s="73" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6" s="101">
+        <v>4</v>
+      </c>
+      <c r="B6" s="110" t="s">
+        <v>939</v>
+      </c>
+      <c r="C6" s="110" t="s">
+        <v>940</v>
+      </c>
+      <c r="D6" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E6" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F6" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G6" s="50">
+        <v>2</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="22">
+        <v>2</v>
+      </c>
+      <c r="K6" s="12">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>256</v>
+      </c>
+      <c r="N6" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O6" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P6" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S6" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T6" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="U6" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V6" t="s">
+        <v>945</v>
+      </c>
+      <c r="W6" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X6" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y6" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA6" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB6" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC6" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7" s="101">
+        <v>4</v>
+      </c>
+      <c r="B7" s="110" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C7" s="110" t="s">
+        <v>940</v>
+      </c>
+      <c r="D7" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F7" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G7" s="50">
+        <v>2</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J7" s="22">
+        <v>2</v>
+      </c>
+      <c r="K7" s="12">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>512</v>
+      </c>
+      <c r="N7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="O7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P7" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R7" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T7" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="U7" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V7" t="s">
+        <v>945</v>
+      </c>
+      <c r="W7" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X7" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y7" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA7" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB7" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC7" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8" s="114">
+        <v>5</v>
+      </c>
+      <c r="B8" s="110" t="s">
+        <v>950</v>
+      </c>
+      <c r="C8" s="110" t="s">
+        <v>951</v>
+      </c>
+      <c r="D8" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E8" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F8" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G8" s="50">
+        <v>2</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="22">
+        <v>2</v>
+      </c>
+      <c r="K8" s="12">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>256</v>
+      </c>
+      <c r="N8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P8" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T8" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V8" t="s">
+        <v>945</v>
+      </c>
+      <c r="W8" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X8" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y8" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA8" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB8" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC8" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9" s="114">
+        <v>5</v>
+      </c>
+      <c r="B9" s="110" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C9" s="110" t="s">
+        <v>951</v>
+      </c>
+      <c r="D9" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E9" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F9" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G9" s="50">
+        <v>2</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="22">
+        <v>2</v>
+      </c>
+      <c r="K9" s="12">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
+        <v>512</v>
+      </c>
+      <c r="N9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="O9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P9" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T9" s="20" t="s">
+        <v>775</v>
+      </c>
+      <c r="U9" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V9" t="s">
+        <v>945</v>
+      </c>
+      <c r="W9" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X9" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y9" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA9" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB9" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC9" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="114">
+        <v>6</v>
+      </c>
+      <c r="B10" s="116" t="s">
+        <v>952</v>
+      </c>
+      <c r="C10" s="116" t="s">
+        <v>953</v>
+      </c>
+      <c r="D10" s="116" t="s">
+        <v>941</v>
+      </c>
+      <c r="E10" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F10" s="117" t="s">
+        <v>942</v>
+      </c>
+      <c r="G10" s="118">
+        <v>2</v>
+      </c>
+      <c r="H10" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I10" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="119">
+        <v>2</v>
+      </c>
+      <c r="K10" s="120">
+        <v>1</v>
+      </c>
+      <c r="L10" s="73">
+        <v>1</v>
+      </c>
+      <c r="M10" s="73">
+        <v>256</v>
+      </c>
+      <c r="N10" s="73" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O10" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P10" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q10" s="73" t="s">
+        <v>1017</v>
+      </c>
+      <c r="R10" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S10" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="T10" s="80" t="s">
+        <v>775</v>
+      </c>
+      <c r="U10" s="74" t="s">
+        <v>944</v>
+      </c>
+      <c r="V10" s="73" t="s">
+        <v>945</v>
+      </c>
+      <c r="W10" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="X10" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y10" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z10" s="73" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA10" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB10" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC10" s="122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="114">
+        <v>6</v>
+      </c>
+      <c r="B11" s="116" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C11" s="116" t="s">
+        <v>953</v>
+      </c>
+      <c r="D11" s="116" t="s">
+        <v>941</v>
+      </c>
+      <c r="E11" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F11" s="117" t="s">
+        <v>942</v>
+      </c>
+      <c r="G11" s="118">
+        <v>2</v>
+      </c>
+      <c r="H11" s="74" t="s">
+        <v>105</v>
+      </c>
+      <c r="I11" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J11" s="119">
+        <v>2</v>
+      </c>
+      <c r="K11" s="120">
+        <v>1</v>
+      </c>
+      <c r="L11" s="73">
+        <v>2</v>
+      </c>
+      <c r="M11" s="73">
+        <v>512</v>
+      </c>
+      <c r="N11" s="73" t="s">
+        <v>1009</v>
+      </c>
+      <c r="O11" t="s">
+        <v>1016</v>
+      </c>
+      <c r="P11" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q11" s="73" t="s">
+        <v>1037</v>
+      </c>
+      <c r="R11" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S11" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="T11" s="80" t="s">
+        <v>775</v>
+      </c>
+      <c r="U11" s="74" t="s">
+        <v>944</v>
+      </c>
+      <c r="V11" s="73" t="s">
+        <v>945</v>
+      </c>
+      <c r="W11" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="X11" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y11" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z11" s="73" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA11" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB11" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC11" s="122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12" s="101">
+        <v>7</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>954</v>
+      </c>
+      <c r="C12" s="110" t="s">
+        <v>955</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F12" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G12" s="50">
+        <v>2</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J12" s="22">
+        <v>2</v>
+      </c>
+      <c r="K12" s="12">
+        <v>1</v>
+      </c>
+      <c r="L12" s="95">
+        <v>1</v>
+      </c>
+      <c r="M12" s="95">
+        <v>576</v>
+      </c>
+      <c r="N12" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O12" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P12" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T12" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="U12" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V12" t="s">
+        <v>945</v>
+      </c>
+      <c r="W12" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X12" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y12" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA12" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB12" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC12" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13" s="101">
+        <v>7</v>
+      </c>
+      <c r="B13" s="110" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>955</v>
+      </c>
+      <c r="D13" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E13" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F13" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G13" s="50">
+        <v>2</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J13" s="22">
+        <v>2</v>
+      </c>
+      <c r="K13" s="12">
+        <v>1</v>
+      </c>
+      <c r="L13" s="95">
+        <v>1</v>
+      </c>
+      <c r="M13" s="95">
+        <v>576</v>
+      </c>
+      <c r="N13" t="s">
+        <v>1010</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P13" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R13" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T13" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="U13" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V13" t="s">
+        <v>945</v>
+      </c>
+      <c r="W13" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X13" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y13" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA13" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB13" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC13" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14" s="114">
+        <v>8</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>957</v>
+      </c>
+      <c r="C14" s="110" t="s">
+        <v>958</v>
+      </c>
+      <c r="D14" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E14" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F14" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G14" s="50">
+        <v>2</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J14" s="22">
+        <v>2</v>
+      </c>
+      <c r="K14" s="12">
+        <v>1</v>
+      </c>
+      <c r="L14" s="95">
+        <v>1</v>
+      </c>
+      <c r="M14" s="95">
+        <v>576</v>
+      </c>
+      <c r="N14" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P14" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S14" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T14" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="U14" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V14" t="s">
+        <v>945</v>
+      </c>
+      <c r="W14" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X14" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y14" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA14" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB14" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC14" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15" s="114">
+        <v>8</v>
+      </c>
+      <c r="B15" s="110" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C15" s="110" t="s">
+        <v>958</v>
+      </c>
+      <c r="D15" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E15" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F15" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G15" s="50">
+        <v>2</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="22">
+        <v>2</v>
+      </c>
+      <c r="K15" s="12">
+        <v>1</v>
+      </c>
+      <c r="L15" s="95">
+        <v>1</v>
+      </c>
+      <c r="M15" s="95">
+        <v>576</v>
+      </c>
+      <c r="N15" t="s">
+        <v>1011</v>
+      </c>
+      <c r="O15" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P15" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R15" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S15" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T15" s="20" t="s">
+        <v>776</v>
+      </c>
+      <c r="U15" s="6" t="s">
+        <v>944</v>
+      </c>
+      <c r="V15" t="s">
+        <v>945</v>
+      </c>
+      <c r="W15" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X15" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y15" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA15" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB15" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC15" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="114">
+        <v>9</v>
+      </c>
+      <c r="B16" s="116" t="s">
+        <v>959</v>
+      </c>
+      <c r="C16" s="116" t="s">
+        <v>960</v>
+      </c>
+      <c r="D16" s="116" t="s">
+        <v>941</v>
+      </c>
+      <c r="E16" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F16" s="117" t="s">
+        <v>942</v>
+      </c>
+      <c r="G16" s="118">
+        <v>2</v>
+      </c>
+      <c r="H16" s="74" t="s">
+        <v>956</v>
+      </c>
+      <c r="I16" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="119">
+        <v>2</v>
+      </c>
+      <c r="K16" s="120">
+        <v>1</v>
+      </c>
+      <c r="L16" s="73">
+        <v>1</v>
+      </c>
+      <c r="M16" s="73">
+        <v>576</v>
+      </c>
+      <c r="N16" s="73" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O16" s="73" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P16" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q16" s="73" t="s">
+        <v>1019</v>
+      </c>
+      <c r="R16" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S16" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="T16" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="U16" s="74" t="s">
+        <v>944</v>
+      </c>
+      <c r="V16" s="73" t="s">
+        <v>945</v>
+      </c>
+      <c r="W16" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="X16" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y16" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z16" s="73" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA16" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB16" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC16" s="122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="114">
+        <v>9</v>
+      </c>
+      <c r="B17" s="116" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C17" s="116" t="s">
+        <v>960</v>
+      </c>
+      <c r="D17" s="116" t="s">
+        <v>941</v>
+      </c>
+      <c r="E17" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F17" s="117" t="s">
+        <v>942</v>
+      </c>
+      <c r="G17" s="118">
+        <v>2</v>
+      </c>
+      <c r="H17" s="74" t="s">
+        <v>956</v>
+      </c>
+      <c r="I17" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J17" s="119">
+        <v>2</v>
+      </c>
+      <c r="K17" s="120">
+        <v>1</v>
+      </c>
+      <c r="L17" s="73">
+        <v>1</v>
+      </c>
+      <c r="M17" s="73">
+        <v>576</v>
+      </c>
+      <c r="N17" s="73" t="s">
+        <v>1012</v>
+      </c>
+      <c r="O17" s="73" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P17" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q17" s="73" t="s">
+        <v>1045</v>
+      </c>
+      <c r="R17" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S17" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="T17" s="80" t="s">
+        <v>776</v>
+      </c>
+      <c r="U17" s="74" t="s">
+        <v>944</v>
+      </c>
+      <c r="V17" s="73" t="s">
+        <v>945</v>
+      </c>
+      <c r="W17" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="X17" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y17" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z17" s="73" t="s">
+        <v>948</v>
+      </c>
+      <c r="AA17" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB17" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC17" s="122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18" s="101">
+        <v>10</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>961</v>
+      </c>
+      <c r="C18" s="110" t="s">
+        <v>962</v>
+      </c>
+      <c r="D18" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E18" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F18" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G18" s="50">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J18" s="22">
+        <v>1</v>
+      </c>
+      <c r="K18" s="12">
+        <v>1</v>
+      </c>
+      <c r="L18" s="96">
+        <v>1</v>
+      </c>
+      <c r="M18" s="95">
+        <v>576</v>
+      </c>
+      <c r="N18" t="s">
+        <v>1013</v>
+      </c>
+      <c r="O18" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P18" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>1021</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="S18" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T18" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="U18" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="V18" t="s">
+        <v>965</v>
+      </c>
+      <c r="W18" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X18" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y18" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>968</v>
+      </c>
+      <c r="AA18" s="112" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB18" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC18" s="27" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A19" s="114">
+        <v>11</v>
+      </c>
+      <c r="B19" s="110" t="s">
+        <v>970</v>
+      </c>
+      <c r="C19" s="110" t="s">
+        <v>971</v>
+      </c>
+      <c r="D19" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E19" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F19" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G19" s="50">
+        <v>2</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J19" s="22">
+        <v>1</v>
+      </c>
+      <c r="K19" s="12">
+        <v>1</v>
+      </c>
+      <c r="L19" s="96">
+        <v>1</v>
+      </c>
+      <c r="M19" s="95">
+        <v>576</v>
+      </c>
+      <c r="N19" t="s">
+        <v>1014</v>
+      </c>
+      <c r="O19" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P19" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="R19" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="S19" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T19" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="U19" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="V19" t="s">
+        <v>965</v>
+      </c>
+      <c r="W19" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X19" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y19" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>968</v>
+      </c>
+      <c r="AA19" s="112" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB19" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC19" s="27" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A20" s="114">
+        <v>12</v>
+      </c>
+      <c r="B20" s="110" t="s">
+        <v>972</v>
+      </c>
+      <c r="C20" s="110" t="s">
+        <v>973</v>
+      </c>
+      <c r="D20" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E20" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F20" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G20" s="50">
+        <v>2</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="22">
+        <v>1</v>
+      </c>
+      <c r="K20" s="12">
+        <v>1</v>
+      </c>
+      <c r="L20" s="96">
+        <v>1</v>
+      </c>
+      <c r="M20" s="95">
+        <v>576</v>
+      </c>
+      <c r="N20" t="s">
+        <v>1015</v>
+      </c>
+      <c r="O20" t="s">
+        <v>1020</v>
+      </c>
+      <c r="P20" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>1021</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>963</v>
+      </c>
+      <c r="S20" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T20" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="U20" s="6" t="s">
+        <v>964</v>
+      </c>
+      <c r="V20" t="s">
+        <v>965</v>
+      </c>
+      <c r="W20" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X20" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y20" s="27" t="s">
+        <v>967</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>968</v>
+      </c>
+      <c r="AA20" s="112" t="s">
+        <v>754</v>
+      </c>
+      <c r="AB20" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC20" s="27" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="101">
+        <v>13</v>
+      </c>
+      <c r="B21" s="102" t="s">
+        <v>974</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>975</v>
+      </c>
+      <c r="D21" s="102" t="s">
+        <v>941</v>
+      </c>
+      <c r="E21" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F21" s="103" t="s">
+        <v>942</v>
+      </c>
+      <c r="G21" s="104">
+        <v>2</v>
+      </c>
+      <c r="H21" s="101" t="s">
+        <v>106</v>
+      </c>
+      <c r="I21" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="J21" s="105">
+        <v>2</v>
+      </c>
+      <c r="K21" s="106">
+        <v>1</v>
+      </c>
+      <c r="L21" s="107">
+        <v>1</v>
+      </c>
+      <c r="M21" s="107">
+        <v>256</v>
+      </c>
+      <c r="N21" s="107" t="s">
+        <v>998</v>
+      </c>
+      <c r="O21" s="107" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P21" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q21" s="107" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R21" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="S21" s="101" t="s">
+        <v>977</v>
+      </c>
+      <c r="T21" s="126" t="s">
+        <v>773</v>
+      </c>
+      <c r="U21" s="101" t="s">
+        <v>792</v>
+      </c>
+      <c r="V21" s="107" t="s">
+        <v>965</v>
+      </c>
+      <c r="W21" s="127" t="s">
+        <v>747</v>
+      </c>
+      <c r="X21" s="128" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y21" s="129" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z21" s="107" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA21" s="127" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB21" s="128" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC21" s="109" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A22" s="114">
+        <v>14</v>
+      </c>
+      <c r="B22" s="110" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C22" s="110" t="s">
+        <v>975</v>
+      </c>
+      <c r="D22" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E22" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F22" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G22" s="50">
+        <v>2</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" s="22">
+        <v>2</v>
+      </c>
+      <c r="K22" s="12">
+        <v>1</v>
+      </c>
+      <c r="L22" s="96">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>512</v>
+      </c>
+      <c r="N22" t="s">
+        <v>998</v>
+      </c>
+      <c r="O22" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P22" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S22" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T22" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="U22" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V22" t="s">
+        <v>965</v>
+      </c>
+      <c r="W22" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X22" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y22" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA22" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB22" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC22" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A23" s="114">
+        <v>14</v>
+      </c>
+      <c r="B23" s="110" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C23" s="110" t="s">
+        <v>975</v>
+      </c>
+      <c r="D23" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E23" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F23" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G23" s="50">
+        <v>2</v>
+      </c>
+      <c r="H23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J23" s="22">
+        <v>2</v>
+      </c>
+      <c r="K23" s="12">
+        <v>1</v>
+      </c>
+      <c r="L23" s="96">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>512</v>
+      </c>
+      <c r="N23" t="s">
+        <v>998</v>
+      </c>
+      <c r="O23" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P23" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R23" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S23" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T23" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="U23" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V23" t="s">
+        <v>965</v>
+      </c>
+      <c r="W23" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X23" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y23" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA23" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB23" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC23" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A24" s="114">
+        <v>14</v>
+      </c>
+      <c r="B24" s="110" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C24" s="110" t="s">
+        <v>975</v>
+      </c>
+      <c r="D24" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E24" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F24" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G24" s="50">
+        <v>2</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J24" s="22">
+        <v>2</v>
+      </c>
+      <c r="K24" s="12">
+        <v>1</v>
+      </c>
+      <c r="L24" s="96">
+        <v>2</v>
+      </c>
+      <c r="M24">
+        <v>512</v>
+      </c>
+      <c r="N24" t="s">
+        <v>998</v>
+      </c>
+      <c r="O24" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P24" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R24" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S24" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T24" s="20" t="s">
+        <v>773</v>
+      </c>
+      <c r="U24" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V24" t="s">
+        <v>965</v>
+      </c>
+      <c r="W24" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X24" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y24" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA24" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB24" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC24" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A25" s="114">
+        <v>15</v>
+      </c>
+      <c r="B25" s="110" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C25" s="110" t="s">
+        <v>979</v>
+      </c>
+      <c r="D25" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E25" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F25" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G25" s="50">
+        <v>2</v>
+      </c>
+      <c r="H25" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J25" s="22">
+        <v>2</v>
+      </c>
+      <c r="K25" s="12">
+        <v>1</v>
+      </c>
+      <c r="L25" s="96">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>256</v>
+      </c>
+      <c r="N25" t="s">
+        <v>999</v>
+      </c>
+      <c r="O25" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P25" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R25" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S25" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T25" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U25" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V25" t="s">
+        <v>965</v>
+      </c>
+      <c r="W25" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X25" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y25" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA25" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB25" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC25" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A26" s="114">
+        <v>16</v>
+      </c>
+      <c r="B26" s="110" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C26" s="110" t="s">
+        <v>979</v>
+      </c>
+      <c r="D26" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E26" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F26" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G26" s="50">
+        <v>2</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J26" s="22">
+        <v>2</v>
+      </c>
+      <c r="K26" s="12">
+        <v>1</v>
+      </c>
+      <c r="L26" s="96">
+        <v>2</v>
+      </c>
+      <c r="M26">
+        <v>512</v>
+      </c>
+      <c r="N26" t="s">
+        <v>999</v>
+      </c>
+      <c r="O26" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P26" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S26" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T26" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U26" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V26" t="s">
+        <v>965</v>
+      </c>
+      <c r="W26" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X26" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y26" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA26" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB26" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC26" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A27" s="114">
+        <v>16</v>
+      </c>
+      <c r="B27" s="110" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C27" s="110" t="s">
+        <v>979</v>
+      </c>
+      <c r="D27" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E27" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F27" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G27" s="50">
+        <v>2</v>
+      </c>
+      <c r="H27" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J27" s="22">
+        <v>2</v>
+      </c>
+      <c r="K27" s="12">
+        <v>1</v>
+      </c>
+      <c r="L27" s="96">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>512</v>
+      </c>
+      <c r="N27" t="s">
+        <v>999</v>
+      </c>
+      <c r="O27" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P27" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R27" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S27" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U27" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V27" t="s">
+        <v>965</v>
+      </c>
+      <c r="W27" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X27" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y27" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA27" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB27" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC27" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A28" s="114">
+        <v>16</v>
+      </c>
+      <c r="B28" s="110" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C28" s="110" t="s">
+        <v>979</v>
+      </c>
+      <c r="D28" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E28" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F28" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G28" s="50">
+        <v>2</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J28" s="22">
+        <v>2</v>
+      </c>
+      <c r="K28" s="12">
+        <v>1</v>
+      </c>
+      <c r="L28" s="96">
+        <v>2</v>
+      </c>
+      <c r="M28">
+        <v>512</v>
+      </c>
+      <c r="N28" t="s">
+        <v>999</v>
+      </c>
+      <c r="O28" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P28" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S28" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T28" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U28" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V28" t="s">
+        <v>965</v>
+      </c>
+      <c r="W28" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X28" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y28" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA28" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB28" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC28" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A29" s="114">
+        <v>17</v>
+      </c>
+      <c r="B29" s="110" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C29" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D29" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E29" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F29" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G29" s="50">
+        <v>2</v>
+      </c>
+      <c r="H29" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J29" s="22">
+        <v>2</v>
+      </c>
+      <c r="K29" s="12">
+        <v>1</v>
+      </c>
+      <c r="L29" s="96">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>256</v>
+      </c>
+      <c r="N29" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O29" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P29" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>1002</v>
+      </c>
+      <c r="R29" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S29" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T29" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U29" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V29" t="s">
+        <v>965</v>
+      </c>
+      <c r="W29" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X29" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y29" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z29" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA29" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB29" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC29" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A30" s="114">
+        <v>18</v>
+      </c>
+      <c r="B30" s="110" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C30" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D30" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E30" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F30" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G30" s="50">
+        <v>2</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J30" s="22">
+        <v>2</v>
+      </c>
+      <c r="K30" s="12">
+        <v>1</v>
+      </c>
+      <c r="L30" s="96">
+        <v>2</v>
+      </c>
+      <c r="M30">
+        <v>512</v>
+      </c>
+      <c r="N30" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O30" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P30" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S30" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T30" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U30" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V30" t="s">
+        <v>965</v>
+      </c>
+      <c r="W30" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X30" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y30" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA30" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB30" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC30" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A31" s="114">
+        <v>18</v>
+      </c>
+      <c r="B31" s="110" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C31" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D31" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E31" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F31" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G31" s="50">
+        <v>2</v>
+      </c>
+      <c r="H31" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31" s="22">
+        <v>2</v>
+      </c>
+      <c r="K31" s="12">
+        <v>1</v>
+      </c>
+      <c r="L31" s="96">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>512</v>
+      </c>
+      <c r="N31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O31" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P31" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R31" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S31" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T31" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U31" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V31" t="s">
+        <v>965</v>
+      </c>
+      <c r="W31" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X31" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y31" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z31" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA31" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB31" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC31" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A32" s="114">
+        <v>18</v>
+      </c>
+      <c r="B32" s="110" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C32" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D32" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E32" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F32" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G32" s="50">
+        <v>2</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I32" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J32" s="22">
+        <v>2</v>
+      </c>
+      <c r="K32" s="12">
+        <v>1</v>
+      </c>
+      <c r="L32" s="96">
+        <v>2</v>
+      </c>
+      <c r="M32">
+        <v>512</v>
+      </c>
+      <c r="N32" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O32" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P32" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R32" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S32" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T32" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U32" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V32" t="s">
+        <v>965</v>
+      </c>
+      <c r="W32" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X32" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y32" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z32" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA32" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB32" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC32" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="101">
+        <v>19</v>
+      </c>
+      <c r="B33" s="102" t="s">
+        <v>981</v>
+      </c>
+      <c r="C33" s="102" t="s">
+        <v>982</v>
+      </c>
+      <c r="D33" s="102" t="s">
+        <v>941</v>
+      </c>
+      <c r="E33" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F33" s="103" t="s">
+        <v>942</v>
+      </c>
+      <c r="G33" s="104">
+        <v>2</v>
+      </c>
+      <c r="H33" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="I33" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="J33" s="105">
+        <v>2</v>
+      </c>
+      <c r="K33" s="106">
+        <v>1</v>
+      </c>
+      <c r="L33" s="107">
+        <v>1</v>
+      </c>
+      <c r="M33" s="107">
+        <v>256</v>
+      </c>
+      <c r="N33" s="107" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O33" s="107" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P33" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q33" s="107" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R33" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="S33" s="101" t="s">
+        <v>943</v>
+      </c>
+      <c r="T33" s="126" t="s">
+        <v>789</v>
+      </c>
+      <c r="U33" s="101" t="s">
+        <v>792</v>
+      </c>
+      <c r="V33" s="107" t="s">
+        <v>965</v>
+      </c>
+      <c r="W33" s="127" t="s">
+        <v>747</v>
+      </c>
+      <c r="X33" s="128" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y33" s="129" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z33" s="107" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA33" s="127" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB33" s="128" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC33" s="109" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A34" s="114">
+        <v>20</v>
+      </c>
+      <c r="B34" s="110" t="s">
+        <v>983</v>
+      </c>
+      <c r="C34" s="110" t="s">
+        <v>984</v>
+      </c>
+      <c r="D34" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E34" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F34" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G34" s="50">
+        <v>2</v>
+      </c>
+      <c r="H34" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I34" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="22">
+        <v>2</v>
+      </c>
+      <c r="K34" s="12">
+        <v>1</v>
+      </c>
+      <c r="L34" s="96">
+        <v>1</v>
+      </c>
+      <c r="M34" s="95">
+        <v>256</v>
+      </c>
+      <c r="N34" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O34" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P34" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S34" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T34" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="U34" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V34" t="s">
+        <v>965</v>
+      </c>
+      <c r="W34" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X34" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y34" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z34" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA34" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB34" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC34" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A35" s="114">
+        <v>21</v>
+      </c>
+      <c r="B35" s="110" t="s">
+        <v>985</v>
+      </c>
+      <c r="C35" s="110" t="s">
+        <v>986</v>
+      </c>
+      <c r="D35" s="110" t="s">
+        <v>941</v>
+      </c>
+      <c r="E35" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F35" s="111" t="s">
+        <v>942</v>
+      </c>
+      <c r="G35" s="50">
+        <v>2</v>
+      </c>
+      <c r="H35" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I35" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J35" s="22">
+        <v>2</v>
+      </c>
+      <c r="K35" s="12">
+        <v>1</v>
+      </c>
+      <c r="L35" s="96">
+        <v>1</v>
+      </c>
+      <c r="M35" s="95">
+        <v>256</v>
+      </c>
+      <c r="N35" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O35" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P35" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R35" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S35" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T35" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="U35" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V35" t="s">
+        <v>965</v>
+      </c>
+      <c r="W35" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X35" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y35" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA35" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB35" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC35" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" s="107" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="101">
+        <v>22</v>
+      </c>
+      <c r="B36" s="102" t="s">
+        <v>987</v>
+      </c>
+      <c r="C36" s="102" t="s">
+        <v>988</v>
+      </c>
+      <c r="D36" s="102" t="s">
+        <v>941</v>
+      </c>
+      <c r="E36" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F36" s="103" t="s">
+        <v>942</v>
+      </c>
+      <c r="G36" s="104">
+        <v>2</v>
+      </c>
+      <c r="H36" s="101" t="s">
+        <v>772</v>
+      </c>
+      <c r="I36" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="J36" s="105">
+        <v>2</v>
+      </c>
+      <c r="K36" s="106">
+        <v>1</v>
+      </c>
+      <c r="L36" s="107">
+        <v>1</v>
+      </c>
+      <c r="M36" s="107">
+        <v>256</v>
+      </c>
+      <c r="N36" s="107" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O36" s="107" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P36" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q36" s="107" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R36" s="126" t="s">
+        <v>92</v>
+      </c>
+      <c r="S36" s="101" t="s">
+        <v>943</v>
+      </c>
+      <c r="T36" s="126" t="s">
+        <v>772</v>
+      </c>
+      <c r="U36" s="101" t="s">
+        <v>989</v>
+      </c>
+      <c r="V36" s="107" t="s">
+        <v>990</v>
+      </c>
+      <c r="W36" s="127" t="s">
+        <v>747</v>
+      </c>
+      <c r="X36" s="128" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y36" s="129" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z36" s="107" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA36" s="127" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB36" s="128" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC36" s="109" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="114">
+        <v>22</v>
+      </c>
+      <c r="B37" s="130" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C37" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D37" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E37" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F37" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G37" s="96">
+        <v>2</v>
+      </c>
+      <c r="H37" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I37" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J37" s="131">
+        <v>2</v>
+      </c>
+      <c r="K37" s="132">
+        <v>1</v>
+      </c>
+      <c r="L37" s="96">
+        <v>1</v>
+      </c>
+      <c r="M37" s="96">
+        <v>256</v>
+      </c>
+      <c r="N37" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O37" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P37" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q37" s="96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R37" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S37" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T37" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U37" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V37" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W37" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X37" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y37" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z37" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA37" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB37" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC37" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="114">
+        <v>22</v>
+      </c>
+      <c r="B38" s="130" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C38" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D38" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E38" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F38" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G38" s="96">
+        <v>2</v>
+      </c>
+      <c r="H38" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I38" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J38" s="131">
+        <v>2</v>
+      </c>
+      <c r="K38" s="132">
+        <v>1</v>
+      </c>
+      <c r="L38" s="96">
+        <v>1</v>
+      </c>
+      <c r="M38" s="96">
+        <v>256</v>
+      </c>
+      <c r="N38" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O38" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P38" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q38" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R38" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S38" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T38" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U38" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V38" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W38" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X38" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y38" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z38" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA38" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB38" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC38" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="114">
+        <v>22</v>
+      </c>
+      <c r="B39" s="130" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C39" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D39" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E39" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F39" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G39" s="96">
+        <v>2</v>
+      </c>
+      <c r="H39" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I39" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J39" s="131">
+        <v>2</v>
+      </c>
+      <c r="K39" s="132">
+        <v>1</v>
+      </c>
+      <c r="L39" s="96">
+        <v>1</v>
+      </c>
+      <c r="M39" s="96">
+        <v>256</v>
+      </c>
+      <c r="N39" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O39" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P39" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q39" s="96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R39" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S39" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T39" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U39" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V39" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W39" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X39" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y39" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z39" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA39" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB39" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC39" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="114">
+        <v>23</v>
+      </c>
+      <c r="B40" s="130" t="s">
+        <v>992</v>
+      </c>
+      <c r="C40" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D40" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E40" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F40" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G40" s="96">
+        <v>2</v>
+      </c>
+      <c r="H40" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I40" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J40" s="131">
+        <v>2</v>
+      </c>
+      <c r="K40" s="132">
+        <v>1</v>
+      </c>
+      <c r="L40" s="96">
+        <v>1</v>
+      </c>
+      <c r="M40" s="95">
+        <v>256</v>
+      </c>
+      <c r="N40" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O40" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P40" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q40" s="96" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R40" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S40" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T40" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U40" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V40" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W40" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X40" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y40" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z40" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA40" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB40" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC40" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="114">
+        <v>23</v>
+      </c>
+      <c r="B41" s="130" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C41" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D41" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E41" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F41" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G41" s="96">
+        <v>2</v>
+      </c>
+      <c r="H41" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I41" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J41" s="131">
+        <v>2</v>
+      </c>
+      <c r="K41" s="132">
+        <v>1</v>
+      </c>
+      <c r="L41" s="96">
+        <v>1</v>
+      </c>
+      <c r="M41" s="95">
+        <v>256</v>
+      </c>
+      <c r="N41" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O41" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P41" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q41" s="96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R41" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S41" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T41" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U41" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V41" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W41" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X41" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y41" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z41" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA41" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB41" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC41" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="114">
+        <v>23</v>
+      </c>
+      <c r="B42" s="130" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C42" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D42" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E42" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F42" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G42" s="96">
+        <v>2</v>
+      </c>
+      <c r="H42" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I42" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="131">
+        <v>2</v>
+      </c>
+      <c r="K42" s="132">
+        <v>1</v>
+      </c>
+      <c r="L42" s="96">
+        <v>1</v>
+      </c>
+      <c r="M42" s="95">
+        <v>256</v>
+      </c>
+      <c r="N42" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O42" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P42" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q42" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R42" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S42" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T42" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U42" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V42" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W42" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X42" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y42" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z42" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA42" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB42" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC42" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="114">
+        <v>23</v>
+      </c>
+      <c r="B43" s="130" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C43" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D43" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E43" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F43" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G43" s="96">
+        <v>2</v>
+      </c>
+      <c r="H43" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I43" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J43" s="131">
+        <v>2</v>
+      </c>
+      <c r="K43" s="132">
+        <v>1</v>
+      </c>
+      <c r="L43" s="96">
+        <v>1</v>
+      </c>
+      <c r="M43" s="95">
+        <v>256</v>
+      </c>
+      <c r="N43" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O43" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P43" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q43" s="96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R43" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S43" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T43" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U43" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V43" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W43" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X43" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y43" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z43" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA43" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB43" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC43" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="114">
+        <v>24</v>
+      </c>
+      <c r="B44" s="130" t="s">
+        <v>994</v>
+      </c>
+      <c r="C44" s="130" t="s">
+        <v>995</v>
+      </c>
+      <c r="D44" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E44" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F44" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G44" s="96">
+        <v>2</v>
+      </c>
+      <c r="H44" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I44" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J44" s="131">
+        <v>2</v>
+      </c>
+      <c r="K44" s="132">
+        <v>1</v>
+      </c>
+      <c r="L44" s="96">
+        <v>1</v>
+      </c>
+      <c r="M44" s="96">
+        <v>256</v>
+      </c>
+      <c r="N44" s="96" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O44" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P44" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q44" s="96" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R44" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S44" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T44" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U44" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V44" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W44" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X44" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y44" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z44" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA44" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB44" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC44" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="114">
+        <v>24</v>
+      </c>
+      <c r="B45" s="130" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C45" s="130" t="s">
+        <v>995</v>
+      </c>
+      <c r="D45" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E45" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F45" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G45" s="50">
+        <v>2</v>
+      </c>
+      <c r="H45" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I45" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="131">
+        <v>2</v>
+      </c>
+      <c r="K45" s="132">
+        <v>1</v>
+      </c>
+      <c r="L45" s="96">
+        <v>1</v>
+      </c>
+      <c r="M45" s="96">
+        <v>256</v>
+      </c>
+      <c r="N45" s="96" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O45" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P45" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q45" s="96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R45" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S45" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T45" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="U45" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V45" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W45" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X45" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y45" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z45" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA45" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB45" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC45" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="114">
+        <v>24</v>
+      </c>
+      <c r="B46" s="130" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C46" s="130" t="s">
+        <v>995</v>
+      </c>
+      <c r="D46" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E46" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F46" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G46" s="96">
+        <v>2</v>
+      </c>
+      <c r="H46" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I46" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J46" s="131">
+        <v>2</v>
+      </c>
+      <c r="K46" s="132">
+        <v>1</v>
+      </c>
+      <c r="L46" s="96">
+        <v>1</v>
+      </c>
+      <c r="M46" s="96">
+        <v>256</v>
+      </c>
+      <c r="N46" s="96" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O46" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P46" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q46" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R46" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S46" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T46" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U46" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V46" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W46" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X46" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y46" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z46" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA46" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB46" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC46" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="74">
+        <v>24</v>
+      </c>
+      <c r="B47" s="116" t="s">
+        <v>1059</v>
+      </c>
+      <c r="C47" s="116" t="s">
+        <v>995</v>
+      </c>
+      <c r="D47" s="116" t="s">
+        <v>941</v>
+      </c>
+      <c r="E47" s="117" t="s">
+        <v>976</v>
+      </c>
+      <c r="F47" s="117" t="s">
+        <v>942</v>
+      </c>
+      <c r="G47" s="118">
+        <v>2</v>
+      </c>
+      <c r="H47" s="74" t="s">
+        <v>772</v>
+      </c>
+      <c r="I47" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="119">
+        <v>2</v>
+      </c>
+      <c r="K47" s="120">
+        <v>1</v>
+      </c>
+      <c r="L47" s="73">
+        <v>1</v>
+      </c>
+      <c r="M47" s="73">
+        <v>256</v>
+      </c>
+      <c r="N47" s="73" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O47" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P47" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q47" s="73" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R47" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S47" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="T47" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="U47" s="74" t="s">
+        <v>989</v>
+      </c>
+      <c r="V47" s="73" t="s">
+        <v>990</v>
+      </c>
+      <c r="W47" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="X47" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y47" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z47" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA47" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB47" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC47" s="122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="I2:I5 I21 I25 I29 I33:I36 I40 I44">
+    <cfRule type="containsText" dxfId="298" priority="302" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="297" priority="303" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="296" priority="304" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="295" priority="305" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:F2 F3:F5 E3:E6 E8 E10 E12 E40 E44 E14 E16 E18:E22 E25:E26 E29 E32:E36">
+    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="301" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="292" priority="296" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="291" priority="297" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="290" priority="298" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="289" priority="299" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
+    <cfRule type="cellIs" dxfId="288" priority="294" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="287" priority="295" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I6 I8 I10 I12 I14 I16">
+    <cfRule type="containsText" dxfId="286" priority="290" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="285" priority="291" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="292" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="283" priority="293" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16">
+    <cfRule type="cellIs" dxfId="282" priority="288" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="281" priority="289" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16">
+    <cfRule type="cellIs" dxfId="280" priority="287" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I18:I20">
+    <cfRule type="containsText" dxfId="279" priority="283" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I18)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="278" priority="284" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="285" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="276" priority="286" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F22 F40 F44 F25:F26 F29 F32:F36">
+    <cfRule type="cellIs" dxfId="275" priority="281" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="282" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F18:F22 F40 F44 F25:F26 F29 F32:F36">
+    <cfRule type="cellIs" dxfId="273" priority="280" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I22">
+    <cfRule type="containsText" dxfId="272" priority="267" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I22)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="268" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="270" priority="269" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="269" priority="270" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="268" priority="258" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I26)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="267" priority="259" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="260" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="265" priority="261" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="264" priority="249" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I32)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="250" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="251" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="252" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E7">
+    <cfRule type="cellIs" dxfId="260" priority="242" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="243" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="containsText" dxfId="258" priority="238" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I7)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="239" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="256" priority="240" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="255" priority="241" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I7)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="254" priority="236" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="237" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="cellIs" dxfId="252" priority="235" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E9">
+    <cfRule type="cellIs" dxfId="251" priority="233" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="234" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="containsText" dxfId="249" priority="229" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I9)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="230" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="247" priority="231" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="246" priority="232" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="245" priority="227" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="228" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F9">
+    <cfRule type="cellIs" dxfId="243" priority="226" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E11">
+    <cfRule type="cellIs" dxfId="242" priority="224" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="225" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="containsText" dxfId="240" priority="220" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I11)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="221" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="238" priority="222" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="237" priority="223" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I11)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="236" priority="218" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="219" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F11">
+    <cfRule type="cellIs" dxfId="234" priority="217" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I37">
+    <cfRule type="containsText" dxfId="233" priority="213" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I37)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="232" priority="214" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="231" priority="215" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="230" priority="216" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I37)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="229" priority="211" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="228" priority="212" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="227" priority="209" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="226" priority="210" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="cellIs" dxfId="225" priority="208" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="224" priority="204" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="223" priority="205" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="206" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="221" priority="207" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I41)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="220" priority="202" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="219" priority="203" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="218" priority="200" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="217" priority="201" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="216" priority="199" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I45">
+    <cfRule type="containsText" dxfId="215" priority="195" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I45)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="214" priority="196" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="213" priority="197" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="212" priority="198" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I45)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E45">
+    <cfRule type="cellIs" dxfId="211" priority="193" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="210" priority="194" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="209" priority="191" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="208" priority="192" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F45">
+    <cfRule type="cellIs" dxfId="207" priority="190" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="206" priority="188" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="205" priority="189" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="204" priority="184" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="203" priority="185" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="202" priority="186" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="201" priority="187" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="200" priority="182" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="199" priority="183" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="198" priority="181" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="197" priority="179" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="180" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="195" priority="175" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I15)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="194" priority="176" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="193" priority="177" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="192" priority="178" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="191" priority="173" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="174" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="189" priority="172" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="188" priority="170" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="171" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="186" priority="166" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I17)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="185" priority="167" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="184" priority="168" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="183" priority="169" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="182" priority="164" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="181" priority="165" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="180" priority="163" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="179" priority="161" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="162" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="177" priority="159" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="176" priority="160" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="175" priority="158" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="174" priority="154" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I23)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="173" priority="155" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="172" priority="156" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="171" priority="157" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="170" priority="152" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="153" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="168" priority="150" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="167" priority="151" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="166" priority="149" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="165" priority="145" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I24)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="164" priority="146" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="163" priority="147" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="162" priority="148" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="161" priority="143" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="160" priority="144" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="159" priority="141" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="142" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="157" priority="140" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="156" priority="136" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I27)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="155" priority="137" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="154" priority="138" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="153" priority="139" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E28">
+    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="151" priority="135" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="150" priority="132" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="149" priority="133" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F28">
+    <cfRule type="cellIs" dxfId="148" priority="131" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I28">
+    <cfRule type="containsText" dxfId="147" priority="127" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I28)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="146" priority="128" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="145" priority="129" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="144" priority="130" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="143" priority="109" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I31)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="110" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="111" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="112" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="126" priority="37" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="123" priority="123" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="120" priority="118" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I30)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="117" priority="121" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="115" priority="117" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I38)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="53" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I38)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="50" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="48" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="44" priority="42" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I39)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I42">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I42)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I42)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42">
+    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I43">
+    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I43)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I43)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E43">
+    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F43">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I46)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I47)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I47)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/dataset_train_transformer-v2.xlsx
+++ b/dataset_train_transformer-v2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\qiqilu\Project\2024 Foundation model\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9FB4995-2B46-4EEE-A663-3DD560DBE152}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F0EE02-4BA5-4D3E-9D37-1FD0DFCA0E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10916" uniqueCount="1062">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11330" uniqueCount="1086">
   <si>
     <t>path_lr</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3508,6 +3508,102 @@
   </si>
   <si>
     <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_8.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-1-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-1-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_16.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_64.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-2-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-2-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-3-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-3-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-1-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-1-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train_2d_p32_s32_2d_16.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train_2d_p32_s32_2d_64.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-2-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-2-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-3-16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-3-64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-3-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\Lysosomes\train_2d_p32_s32_2d_256.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-3-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E:\qiqilu\datasets\BioTISR\transformed\CCPs\train_2d_p32_s32_2d_256.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-1-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-ccp-sr-2-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-1-256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>biotisr-lysosome-sr-2-256</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3864,7 +3960,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="379">
+  <dxfs count="469">
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -3912,6 +4008,424 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4364,6 +4878,76 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="5" tint="0.39994506668294322"/>
@@ -4393,6 +4977,16 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4413,11 +5007,157 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4491,11 +5231,401 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4569,16 +5699,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -4627,26 +5747,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
@@ -4672,112 +5772,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4964,124 +5958,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -7274,8 +8150,8 @@
   <dimension ref="A1:X479"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A461" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B470" sqref="B470"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41966,122 +42842,122 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F480:F1048576 F1:F478">
-    <cfRule type="containsText" dxfId="378" priority="121" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="468" priority="121" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="377" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="467" priority="124" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="376" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="466" priority="125" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="375" priority="126" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="465" priority="126" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F195">
-    <cfRule type="containsText" dxfId="374" priority="61" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="464" priority="61" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F195)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="373" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="463" priority="62" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="372" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="462" priority="63" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="371" priority="64" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="461" priority="64" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F195)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F200">
-    <cfRule type="containsText" dxfId="370" priority="57" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="460" priority="57" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F200)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="369" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="459" priority="58" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="368" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="458" priority="59" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="367" priority="60" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="457" priority="60" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F200)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F205">
-    <cfRule type="containsText" dxfId="366" priority="53" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="456" priority="53" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F205)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="365" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="455" priority="54" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="364" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="454" priority="55" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="363" priority="56" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="453" priority="56" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F205)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F210">
-    <cfRule type="containsText" dxfId="362" priority="45" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="452" priority="45" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F210)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="361" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="451" priority="46" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="360" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="450" priority="47" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="359" priority="48" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="449" priority="48" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F210)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F215">
-    <cfRule type="containsText" dxfId="358" priority="41" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="448" priority="41" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F215)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="357" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="447" priority="42" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="356" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="446" priority="43" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="355" priority="44" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="445" priority="44" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F215)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F220">
-    <cfRule type="containsText" dxfId="354" priority="33" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="444" priority="33" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F220)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="353" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="443" priority="34" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="352" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="442" priority="35" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="351" priority="36" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="441" priority="36" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F220)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C473:C479">
-    <cfRule type="cellIs" dxfId="350" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="440" priority="7" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="349" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="439" priority="8" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F479">
-    <cfRule type="containsText" dxfId="348" priority="9" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="438" priority="9" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F479)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="347" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="437" priority="10" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="346" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="436" priority="11" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="345" priority="12" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="435" priority="12" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F479)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48504,164 +49380,164 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="F1:F67">
-    <cfRule type="containsText" dxfId="344" priority="93" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="434" priority="93" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="343" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="433" priority="94" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="342" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="432" priority="95" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="341" priority="96" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="431" priority="96" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F54">
-    <cfRule type="containsText" dxfId="340" priority="43" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="430" priority="43" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F54)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="339" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="429" priority="44" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="338" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="428" priority="45" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="337" priority="46" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="427" priority="46" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F54)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="336" priority="39" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="426" priority="39" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F59)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="335" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="425" priority="40" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="334" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="424" priority="41" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="333" priority="42" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="423" priority="42" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="332" priority="35" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="422" priority="35" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="331" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="421" priority="36" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="330" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="420" priority="37" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="329" priority="38" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="419" priority="38" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C65:C67">
-    <cfRule type="cellIs" dxfId="328" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="418" priority="33" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="327" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="417" priority="34" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68:F70">
-    <cfRule type="containsText" dxfId="326" priority="25" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="416" priority="25" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F68)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="325" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="415" priority="26" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="324" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="414" priority="27" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="323" priority="28" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="413" priority="28" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71:F75">
-    <cfRule type="containsText" dxfId="322" priority="21" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="412" priority="21" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F71)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="321" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="411" priority="22" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="320" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="410" priority="23" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="319" priority="24" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="409" priority="24" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="318" priority="17" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="408" priority="17" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F75)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="317" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="407" priority="18" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="316" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="406" priority="19" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="315" priority="20" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="405" priority="20" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76:F83">
-    <cfRule type="containsText" dxfId="314" priority="13" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="404" priority="13" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F76)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="313" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="403" priority="14" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="312" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="402" priority="15" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="311" priority="16" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="401" priority="16" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84:F85">
-    <cfRule type="containsText" dxfId="310" priority="9" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="400" priority="9" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F84)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="309" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="399" priority="10" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="308" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="398" priority="11" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="307" priority="12" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="397" priority="12" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86:F87">
-    <cfRule type="containsText" dxfId="306" priority="5" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="396" priority="5" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F86)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="305" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="395" priority="6" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="304" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="394" priority="7" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="303" priority="8" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="393" priority="8" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88:F89">
-    <cfRule type="containsText" dxfId="302" priority="1" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="392" priority="1" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",F88)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="301" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="391" priority="2" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="300" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="390" priority="3" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="299" priority="4" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="389" priority="4" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",F88)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -48671,10 +49547,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A163AA7F-4DF5-48A0-AE09-D011016C5669}">
-  <dimension ref="A1:AC47"/>
+  <dimension ref="A1:AC65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -50794,13 +51670,13 @@
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A25" s="114">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="110" t="s">
-        <v>1032</v>
+        <v>1070</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D25" s="110" t="s">
         <v>941</v>
@@ -50827,13 +51703,13 @@
         <v>1</v>
       </c>
       <c r="L25" s="96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M25">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="N25" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O25" t="s">
         <v>1001</v>
@@ -50842,7 +51718,7 @@
         <v>914</v>
       </c>
       <c r="Q25" t="s">
-        <v>1002</v>
+        <v>1072</v>
       </c>
       <c r="R25" s="20" t="s">
         <v>93</v>
@@ -50850,7 +51726,7 @@
       <c r="S25" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="T25" s="28" t="s">
+      <c r="T25" s="20" t="s">
         <v>773</v>
       </c>
       <c r="U25" s="6" t="s">
@@ -50883,13 +51759,13 @@
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A26" s="114">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B26" s="110" t="s">
-        <v>1004</v>
+        <v>1071</v>
       </c>
       <c r="C26" s="110" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D26" s="110" t="s">
         <v>941</v>
@@ -50922,7 +51798,7 @@
         <v>512</v>
       </c>
       <c r="N26" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O26" t="s">
         <v>1001</v>
@@ -50931,7 +51807,7 @@
         <v>914</v>
       </c>
       <c r="Q26" t="s">
-        <v>1006</v>
+        <v>1073</v>
       </c>
       <c r="R26" s="20" t="s">
         <v>93</v>
@@ -50939,7 +51815,7 @@
       <c r="S26" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="T26" s="28" t="s">
+      <c r="T26" s="20" t="s">
         <v>773</v>
       </c>
       <c r="U26" s="6" t="s">
@@ -50972,13 +51848,13 @@
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A27" s="114">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B27" s="110" t="s">
-        <v>1048</v>
+        <v>1082</v>
       </c>
       <c r="C27" s="110" t="s">
-        <v>979</v>
+        <v>975</v>
       </c>
       <c r="D27" s="110" t="s">
         <v>941</v>
@@ -51011,7 +51887,7 @@
         <v>512</v>
       </c>
       <c r="N27" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="O27" t="s">
         <v>1001</v>
@@ -51020,7 +51896,7 @@
         <v>914</v>
       </c>
       <c r="Q27" t="s">
-        <v>1052</v>
+        <v>1081</v>
       </c>
       <c r="R27" s="20" t="s">
         <v>93</v>
@@ -51028,7 +51904,7 @@
       <c r="S27" s="6" t="s">
         <v>977</v>
       </c>
-      <c r="T27" s="28" t="s">
+      <c r="T27" s="20" t="s">
         <v>773</v>
       </c>
       <c r="U27" s="6" t="s">
@@ -51061,10 +51937,10 @@
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A28" s="114">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B28" s="110" t="s">
-        <v>1049</v>
+        <v>1032</v>
       </c>
       <c r="C28" s="110" t="s">
         <v>979</v>
@@ -51094,10 +51970,10 @@
         <v>1</v>
       </c>
       <c r="L28" s="96">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M28">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="N28" t="s">
         <v>999</v>
@@ -51109,7 +51985,7 @@
         <v>914</v>
       </c>
       <c r="Q28" t="s">
-        <v>1053</v>
+        <v>1002</v>
       </c>
       <c r="R28" s="20" t="s">
         <v>93</v>
@@ -51150,13 +52026,13 @@
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A29" s="114">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B29" s="110" t="s">
-        <v>1033</v>
+        <v>1004</v>
       </c>
       <c r="C29" s="110" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D29" s="110" t="s">
         <v>941</v>
@@ -51183,13 +52059,13 @@
         <v>1</v>
       </c>
       <c r="L29" s="96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M29">
-        <v>256</v>
+        <v>512</v>
       </c>
       <c r="N29" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O29" t="s">
         <v>1001</v>
@@ -51198,7 +52074,7 @@
         <v>914</v>
       </c>
       <c r="Q29" t="s">
-        <v>1002</v>
+        <v>1006</v>
       </c>
       <c r="R29" s="20" t="s">
         <v>93</v>
@@ -51239,13 +52115,13 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="114">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B30" s="110" t="s">
-        <v>1005</v>
+        <v>1048</v>
       </c>
       <c r="C30" s="110" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D30" s="110" t="s">
         <v>941</v>
@@ -51278,7 +52154,7 @@
         <v>512</v>
       </c>
       <c r="N30" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O30" t="s">
         <v>1001</v>
@@ -51287,7 +52163,7 @@
         <v>914</v>
       </c>
       <c r="Q30" t="s">
-        <v>1006</v>
+        <v>1052</v>
       </c>
       <c r="R30" s="20" t="s">
         <v>93</v>
@@ -51328,13 +52204,13 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="114">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B31" s="110" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C31" s="110" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D31" s="110" t="s">
         <v>941</v>
@@ -51367,7 +52243,7 @@
         <v>512</v>
       </c>
       <c r="N31" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O31" t="s">
         <v>1001</v>
@@ -51376,7 +52252,7 @@
         <v>914</v>
       </c>
       <c r="Q31" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="R31" s="20" t="s">
         <v>93</v>
@@ -51417,13 +52293,13 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="114">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B32" s="110" t="s">
-        <v>1051</v>
+        <v>1074</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="D32" s="110" t="s">
         <v>941</v>
@@ -51456,7 +52332,7 @@
         <v>512</v>
       </c>
       <c r="N32" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="O32" t="s">
         <v>1001</v>
@@ -51465,7 +52341,7 @@
         <v>914</v>
       </c>
       <c r="Q32" t="s">
-        <v>1053</v>
+        <v>1072</v>
       </c>
       <c r="R32" s="20" t="s">
         <v>93</v>
@@ -51504,104 +52380,104 @@
         <v>949</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="107" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="101">
-        <v>19</v>
-      </c>
-      <c r="B33" s="102" t="s">
-        <v>981</v>
-      </c>
-      <c r="C33" s="102" t="s">
-        <v>982</v>
-      </c>
-      <c r="D33" s="102" t="s">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A33" s="114">
+        <v>16</v>
+      </c>
+      <c r="B33" s="110" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C33" s="110" t="s">
+        <v>979</v>
+      </c>
+      <c r="D33" s="110" t="s">
         <v>941</v>
       </c>
-      <c r="E33" s="103" t="s">
+      <c r="E33" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F33" s="103" t="s">
+      <c r="F33" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G33" s="104">
+      <c r="G33" s="50">
         <v>2</v>
       </c>
-      <c r="H33" s="101" t="s">
-        <v>104</v>
-      </c>
-      <c r="I33" s="101" t="s">
+      <c r="H33" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I33" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J33" s="105">
+      <c r="J33" s="22">
         <v>2</v>
       </c>
-      <c r="K33" s="106">
-        <v>1</v>
-      </c>
-      <c r="L33" s="107">
-        <v>1</v>
-      </c>
-      <c r="M33" s="107">
-        <v>256</v>
-      </c>
-      <c r="N33" s="107" t="s">
-        <v>1022</v>
-      </c>
-      <c r="O33" s="107" t="s">
-        <v>1025</v>
-      </c>
-      <c r="P33" s="107" t="s">
+      <c r="K33" s="12">
+        <v>1</v>
+      </c>
+      <c r="L33" s="96">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>512</v>
+      </c>
+      <c r="N33" t="s">
+        <v>999</v>
+      </c>
+      <c r="O33" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P33" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q33" s="107" t="s">
-        <v>1026</v>
-      </c>
-      <c r="R33" s="126" t="s">
+      <c r="Q33" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R33" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="S33" s="101" t="s">
-        <v>943</v>
-      </c>
-      <c r="T33" s="126" t="s">
-        <v>789</v>
-      </c>
-      <c r="U33" s="101" t="s">
+      <c r="S33" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T33" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U33" s="6" t="s">
         <v>792</v>
       </c>
-      <c r="V33" s="107" t="s">
+      <c r="V33" t="s">
         <v>965</v>
       </c>
-      <c r="W33" s="127" t="s">
+      <c r="W33" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X33" s="128" t="s">
+      <c r="X33" s="113" t="s">
         <v>966</v>
       </c>
-      <c r="Y33" s="129" t="s">
+      <c r="Y33" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="Z33" s="107" t="s">
+      <c r="Z33" t="s">
         <v>978</v>
       </c>
-      <c r="AA33" s="127" t="s">
+      <c r="AA33" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB33" s="128" t="s">
+      <c r="AB33" s="113" t="s">
         <v>966</v>
       </c>
-      <c r="AC33" s="109" t="s">
+      <c r="AC33" s="25" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="114">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B34" s="110" t="s">
-        <v>983</v>
+        <v>1083</v>
       </c>
       <c r="C34" s="110" t="s">
-        <v>984</v>
+        <v>979</v>
       </c>
       <c r="D34" s="110" t="s">
         <v>941</v>
@@ -51616,7 +52492,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>11</v>
@@ -51628,31 +52504,31 @@
         <v>1</v>
       </c>
       <c r="L34" s="96">
-        <v>1</v>
-      </c>
-      <c r="M34" s="95">
-        <v>256</v>
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>512</v>
       </c>
       <c r="N34" t="s">
-        <v>1023</v>
+        <v>999</v>
       </c>
       <c r="O34" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="P34" s="96" t="s">
         <v>914</v>
       </c>
       <c r="Q34" t="s">
-        <v>1026</v>
+        <v>1081</v>
       </c>
       <c r="R34" s="20" t="s">
         <v>93</v>
       </c>
       <c r="S34" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="T34" s="20" t="s">
-        <v>789</v>
+        <v>977</v>
+      </c>
+      <c r="T34" s="28" t="s">
+        <v>773</v>
       </c>
       <c r="U34" s="6" t="s">
         <v>792</v>
@@ -51684,13 +52560,13 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="114">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B35" s="110" t="s">
-        <v>985</v>
+        <v>1033</v>
       </c>
       <c r="C35" s="110" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D35" s="110" t="s">
         <v>941</v>
@@ -51705,7 +52581,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>11</v>
@@ -51719,29 +52595,29 @@
       <c r="L35" s="96">
         <v>1</v>
       </c>
-      <c r="M35" s="95">
+      <c r="M35">
         <v>256</v>
       </c>
       <c r="N35" t="s">
-        <v>1024</v>
+        <v>1000</v>
       </c>
       <c r="O35" t="s">
-        <v>1025</v>
+        <v>1001</v>
       </c>
       <c r="P35" s="96" t="s">
         <v>914</v>
       </c>
       <c r="Q35" t="s">
-        <v>1026</v>
+        <v>1002</v>
       </c>
       <c r="R35" s="20" t="s">
         <v>93</v>
       </c>
       <c r="S35" s="6" t="s">
-        <v>943</v>
-      </c>
-      <c r="T35" s="20" t="s">
-        <v>789</v>
+        <v>977</v>
+      </c>
+      <c r="T35" s="28" t="s">
+        <v>773</v>
       </c>
       <c r="U35" s="6" t="s">
         <v>792</v>
@@ -51771,661 +52647,661 @@
         <v>949</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="107" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="101">
-        <v>22</v>
-      </c>
-      <c r="B36" s="102" t="s">
-        <v>987</v>
-      </c>
-      <c r="C36" s="102" t="s">
-        <v>988</v>
-      </c>
-      <c r="D36" s="102" t="s">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A36" s="114">
+        <v>18</v>
+      </c>
+      <c r="B36" s="110" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C36" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D36" s="110" t="s">
         <v>941</v>
       </c>
-      <c r="E36" s="103" t="s">
+      <c r="E36" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F36" s="103" t="s">
+      <c r="F36" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G36" s="104">
+      <c r="G36" s="50">
         <v>2</v>
       </c>
-      <c r="H36" s="101" t="s">
-        <v>772</v>
-      </c>
-      <c r="I36" s="101" t="s">
+      <c r="H36" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I36" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J36" s="105">
+      <c r="J36" s="22">
         <v>2</v>
       </c>
-      <c r="K36" s="106">
-        <v>1</v>
-      </c>
-      <c r="L36" s="107">
-        <v>1</v>
-      </c>
-      <c r="M36" s="107">
-        <v>256</v>
-      </c>
-      <c r="N36" s="107" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O36" s="107" t="s">
-        <v>1030</v>
-      </c>
-      <c r="P36" s="107" t="s">
+      <c r="K36" s="12">
+        <v>1</v>
+      </c>
+      <c r="L36" s="96">
+        <v>2</v>
+      </c>
+      <c r="M36">
+        <v>512</v>
+      </c>
+      <c r="N36" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O36" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P36" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q36" s="107" t="s">
-        <v>1031</v>
-      </c>
-      <c r="R36" s="126" t="s">
-        <v>92</v>
-      </c>
-      <c r="S36" s="101" t="s">
-        <v>943</v>
-      </c>
-      <c r="T36" s="126" t="s">
-        <v>772</v>
-      </c>
-      <c r="U36" s="101" t="s">
-        <v>989</v>
-      </c>
-      <c r="V36" s="107" t="s">
-        <v>990</v>
-      </c>
-      <c r="W36" s="127" t="s">
+      <c r="Q36" t="s">
+        <v>1006</v>
+      </c>
+      <c r="R36" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S36" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T36" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U36" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V36" t="s">
+        <v>965</v>
+      </c>
+      <c r="W36" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X36" s="128" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y36" s="129" t="s">
+      <c r="X36" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y36" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="Z36" s="107" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA36" s="127" t="s">
+      <c r="Z36" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA36" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB36" s="128" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC36" s="109" t="s">
+      <c r="AB36" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC36" s="25" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A37" s="114">
-        <v>22</v>
-      </c>
-      <c r="B37" s="130" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C37" s="130" t="s">
-        <v>988</v>
-      </c>
-      <c r="D37" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B37" s="110" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C37" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D37" s="110" t="s">
         <v>941</v>
       </c>
       <c r="E37" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F37" s="125" t="s">
+      <c r="F37" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G37" s="96">
+      <c r="G37" s="50">
         <v>2</v>
       </c>
-      <c r="H37" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I37" s="114" t="s">
+      <c r="H37" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I37" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J37" s="131">
+      <c r="J37" s="22">
         <v>2</v>
       </c>
-      <c r="K37" s="132">
+      <c r="K37" s="12">
         <v>1</v>
       </c>
       <c r="L37" s="96">
-        <v>1</v>
-      </c>
-      <c r="M37" s="96">
-        <v>256</v>
-      </c>
-      <c r="N37" s="96" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O37" s="96" t="s">
-        <v>1030</v>
+        <v>2</v>
+      </c>
+      <c r="M37">
+        <v>512</v>
+      </c>
+      <c r="N37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O37" t="s">
+        <v>1001</v>
       </c>
       <c r="P37" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q37" s="96" t="s">
-        <v>1041</v>
-      </c>
-      <c r="R37" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="S37" s="114" t="s">
-        <v>943</v>
-      </c>
-      <c r="T37" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="U37" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V37" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W37" s="134" t="s">
+      <c r="Q37" t="s">
+        <v>1052</v>
+      </c>
+      <c r="R37" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S37" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T37" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U37" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V37" t="s">
+        <v>965</v>
+      </c>
+      <c r="W37" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X37" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y37" s="133" t="s">
+      <c r="X37" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y37" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="Z37" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA37" s="134" t="s">
+      <c r="Z37" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA37" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB37" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC37" s="115" t="s">
+      <c r="AB37" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC37" s="25" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="38" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A38" s="114">
-        <v>22</v>
-      </c>
-      <c r="B38" s="130" t="s">
-        <v>1054</v>
-      </c>
-      <c r="C38" s="130" t="s">
-        <v>988</v>
-      </c>
-      <c r="D38" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="110" t="s">
+        <v>1051</v>
+      </c>
+      <c r="C38" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D38" s="110" t="s">
         <v>941</v>
       </c>
       <c r="E38" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F38" s="125" t="s">
+      <c r="F38" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G38" s="96">
+      <c r="G38" s="50">
         <v>2</v>
       </c>
-      <c r="H38" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I38" s="114" t="s">
+      <c r="H38" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I38" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J38" s="131">
+      <c r="J38" s="22">
         <v>2</v>
       </c>
-      <c r="K38" s="132">
+      <c r="K38" s="12">
         <v>1</v>
       </c>
       <c r="L38" s="96">
-        <v>1</v>
-      </c>
-      <c r="M38" s="96">
-        <v>256</v>
-      </c>
-      <c r="N38" s="96" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O38" s="96" t="s">
-        <v>1030</v>
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>512</v>
+      </c>
+      <c r="N38" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O38" t="s">
+        <v>1001</v>
       </c>
       <c r="P38" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q38" s="96" t="s">
-        <v>1060</v>
-      </c>
-      <c r="R38" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="S38" s="114" t="s">
-        <v>943</v>
-      </c>
-      <c r="T38" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="U38" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V38" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W38" s="134" t="s">
+      <c r="Q38" t="s">
+        <v>1053</v>
+      </c>
+      <c r="R38" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S38" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T38" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U38" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V38" t="s">
+        <v>965</v>
+      </c>
+      <c r="W38" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X38" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y38" s="133" t="s">
+      <c r="X38" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y38" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="Z38" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA38" s="134" t="s">
+      <c r="Z38" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA38" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB38" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC38" s="115" t="s">
+      <c r="AB38" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC38" s="25" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="39" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="114">
-        <v>22</v>
-      </c>
-      <c r="B39" s="130" t="s">
-        <v>1055</v>
-      </c>
-      <c r="C39" s="130" t="s">
-        <v>988</v>
-      </c>
-      <c r="D39" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="110" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C39" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D39" s="110" t="s">
         <v>941</v>
       </c>
       <c r="E39" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F39" s="125" t="s">
+      <c r="F39" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G39" s="96">
+      <c r="G39" s="50">
         <v>2</v>
       </c>
-      <c r="H39" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I39" s="114" t="s">
+      <c r="H39" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I39" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J39" s="131">
+      <c r="J39" s="22">
         <v>2</v>
       </c>
-      <c r="K39" s="132">
+      <c r="K39" s="12">
         <v>1</v>
       </c>
       <c r="L39" s="96">
-        <v>1</v>
-      </c>
-      <c r="M39" s="96">
-        <v>256</v>
-      </c>
-      <c r="N39" s="96" t="s">
-        <v>1027</v>
-      </c>
-      <c r="O39" s="96" t="s">
-        <v>1030</v>
+        <v>2</v>
+      </c>
+      <c r="M39">
+        <v>512</v>
+      </c>
+      <c r="N39" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O39" t="s">
+        <v>1001</v>
       </c>
       <c r="P39" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q39" s="96" t="s">
-        <v>1061</v>
-      </c>
-      <c r="R39" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="S39" s="114" t="s">
-        <v>943</v>
-      </c>
-      <c r="T39" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="U39" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V39" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W39" s="134" t="s">
+      <c r="Q39" t="s">
+        <v>1072</v>
+      </c>
+      <c r="R39" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S39" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T39" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U39" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V39" t="s">
+        <v>965</v>
+      </c>
+      <c r="W39" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X39" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y39" s="133" t="s">
+      <c r="X39" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y39" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="Z39" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA39" s="134" t="s">
+      <c r="Z39" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA39" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB39" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC39" s="115" t="s">
+      <c r="AB39" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC39" s="25" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="40" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A40" s="114">
-        <v>23</v>
-      </c>
-      <c r="B40" s="130" t="s">
-        <v>992</v>
-      </c>
-      <c r="C40" s="130" t="s">
-        <v>993</v>
-      </c>
-      <c r="D40" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B40" s="110" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C40" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D40" s="110" t="s">
         <v>941</v>
       </c>
       <c r="E40" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F40" s="125" t="s">
+      <c r="F40" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G40" s="96">
+      <c r="G40" s="50">
         <v>2</v>
       </c>
-      <c r="H40" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I40" s="114" t="s">
+      <c r="H40" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J40" s="131">
+      <c r="J40" s="22">
         <v>2</v>
       </c>
-      <c r="K40" s="132">
+      <c r="K40" s="12">
         <v>1</v>
       </c>
       <c r="L40" s="96">
-        <v>1</v>
-      </c>
-      <c r="M40" s="95">
-        <v>256</v>
-      </c>
-      <c r="N40" s="96" t="s">
-        <v>1028</v>
-      </c>
-      <c r="O40" s="96" t="s">
-        <v>1030</v>
+        <v>2</v>
+      </c>
+      <c r="M40">
+        <v>512</v>
+      </c>
+      <c r="N40" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O40" t="s">
+        <v>1001</v>
       </c>
       <c r="P40" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q40" s="96" t="s">
-        <v>1031</v>
-      </c>
-      <c r="R40" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="S40" s="114" t="s">
-        <v>943</v>
-      </c>
-      <c r="T40" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="U40" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V40" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W40" s="134" t="s">
+      <c r="Q40" t="s">
+        <v>1073</v>
+      </c>
+      <c r="R40" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S40" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T40" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U40" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V40" t="s">
+        <v>965</v>
+      </c>
+      <c r="W40" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X40" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y40" s="133" t="s">
+      <c r="X40" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y40" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="Z40" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA40" s="134" t="s">
+      <c r="Z40" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA40" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB40" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC40" s="115" t="s">
+      <c r="AB40" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC40" s="25" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="41" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A41" s="114">
-        <v>23</v>
-      </c>
-      <c r="B41" s="130" t="s">
-        <v>1039</v>
-      </c>
-      <c r="C41" s="130" t="s">
-        <v>993</v>
-      </c>
-      <c r="D41" s="130" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="110" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C41" s="110" t="s">
+        <v>980</v>
+      </c>
+      <c r="D41" s="110" t="s">
         <v>941</v>
       </c>
       <c r="E41" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F41" s="125" t="s">
+      <c r="F41" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G41" s="96">
+      <c r="G41" s="50">
         <v>2</v>
       </c>
-      <c r="H41" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I41" s="114" t="s">
+      <c r="H41" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J41" s="131">
+      <c r="J41" s="22">
         <v>2</v>
       </c>
-      <c r="K41" s="132">
+      <c r="K41" s="12">
         <v>1</v>
       </c>
       <c r="L41" s="96">
-        <v>1</v>
-      </c>
-      <c r="M41" s="95">
-        <v>256</v>
-      </c>
-      <c r="N41" s="96" t="s">
-        <v>1028</v>
-      </c>
-      <c r="O41" s="96" t="s">
-        <v>1030</v>
+        <v>2</v>
+      </c>
+      <c r="M41">
+        <v>512</v>
+      </c>
+      <c r="N41" t="s">
+        <v>1000</v>
+      </c>
+      <c r="O41" t="s">
+        <v>1001</v>
       </c>
       <c r="P41" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q41" s="96" t="s">
-        <v>1041</v>
-      </c>
-      <c r="R41" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="S41" s="114" t="s">
+      <c r="Q41" t="s">
+        <v>1081</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S41" s="6" t="s">
+        <v>977</v>
+      </c>
+      <c r="T41" s="28" t="s">
+        <v>773</v>
+      </c>
+      <c r="U41" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V41" t="s">
+        <v>965</v>
+      </c>
+      <c r="W41" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X41" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y41" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA41" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB41" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC41" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" s="107" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="101">
+        <v>19</v>
+      </c>
+      <c r="B42" s="102" t="s">
+        <v>981</v>
+      </c>
+      <c r="C42" s="102" t="s">
+        <v>982</v>
+      </c>
+      <c r="D42" s="102" t="s">
+        <v>941</v>
+      </c>
+      <c r="E42" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F42" s="103" t="s">
+        <v>942</v>
+      </c>
+      <c r="G42" s="104">
+        <v>2</v>
+      </c>
+      <c r="H42" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="I42" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="J42" s="105">
+        <v>2</v>
+      </c>
+      <c r="K42" s="106">
+        <v>1</v>
+      </c>
+      <c r="L42" s="107">
+        <v>1</v>
+      </c>
+      <c r="M42" s="107">
+        <v>256</v>
+      </c>
+      <c r="N42" s="107" t="s">
+        <v>1022</v>
+      </c>
+      <c r="O42" s="107" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P42" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q42" s="107" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R42" s="126" t="s">
+        <v>93</v>
+      </c>
+      <c r="S42" s="101" t="s">
         <v>943</v>
       </c>
-      <c r="T41" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="U41" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V41" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W41" s="134" t="s">
+      <c r="T42" s="126" t="s">
+        <v>789</v>
+      </c>
+      <c r="U42" s="101" t="s">
+        <v>792</v>
+      </c>
+      <c r="V42" s="107" t="s">
+        <v>965</v>
+      </c>
+      <c r="W42" s="127" t="s">
         <v>747</v>
       </c>
-      <c r="X41" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y41" s="133" t="s">
+      <c r="X42" s="128" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y42" s="129" t="s">
         <v>947</v>
       </c>
-      <c r="Z41" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA41" s="134" t="s">
+      <c r="Z42" s="107" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA42" s="127" t="s">
         <v>753</v>
       </c>
-      <c r="AB41" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC41" s="115" t="s">
+      <c r="AB42" s="128" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC42" s="109" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="42" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="114">
-        <v>23</v>
-      </c>
-      <c r="B42" s="130" t="s">
-        <v>1056</v>
-      </c>
-      <c r="C42" s="130" t="s">
-        <v>993</v>
-      </c>
-      <c r="D42" s="130" t="s">
-        <v>941</v>
-      </c>
-      <c r="E42" s="125" t="s">
-        <v>976</v>
-      </c>
-      <c r="F42" s="125" t="s">
-        <v>942</v>
-      </c>
-      <c r="G42" s="96">
-        <v>2</v>
-      </c>
-      <c r="H42" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I42" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="J42" s="131">
-        <v>2</v>
-      </c>
-      <c r="K42" s="132">
-        <v>1</v>
-      </c>
-      <c r="L42" s="96">
-        <v>1</v>
-      </c>
-      <c r="M42" s="95">
-        <v>256</v>
-      </c>
-      <c r="N42" s="96" t="s">
-        <v>1028</v>
-      </c>
-      <c r="O42" s="96" t="s">
-        <v>1030</v>
-      </c>
-      <c r="P42" s="96" t="s">
-        <v>914</v>
-      </c>
-      <c r="Q42" s="96" t="s">
-        <v>1060</v>
-      </c>
-      <c r="R42" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="S42" s="114" t="s">
-        <v>943</v>
-      </c>
-      <c r="T42" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="U42" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V42" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W42" s="134" t="s">
-        <v>747</v>
-      </c>
-      <c r="X42" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y42" s="133" t="s">
-        <v>947</v>
-      </c>
-      <c r="Z42" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA42" s="134" t="s">
-        <v>753</v>
-      </c>
-      <c r="AB42" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC42" s="115" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="114">
-        <v>23</v>
-      </c>
-      <c r="B43" s="130" t="s">
-        <v>1057</v>
-      </c>
-      <c r="C43" s="130" t="s">
-        <v>993</v>
-      </c>
-      <c r="D43" s="130" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="110" t="s">
+        <v>983</v>
+      </c>
+      <c r="C43" s="110" t="s">
+        <v>984</v>
+      </c>
+      <c r="D43" s="110" t="s">
         <v>941</v>
       </c>
       <c r="E43" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F43" s="125" t="s">
+      <c r="F43" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G43" s="96">
+      <c r="G43" s="50">
         <v>2</v>
       </c>
-      <c r="H43" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I43" s="114" t="s">
+      <c r="H43" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I43" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J43" s="131">
+      <c r="J43" s="22">
         <v>2</v>
       </c>
-      <c r="K43" s="132">
+      <c r="K43" s="12">
         <v>1</v>
       </c>
       <c r="L43" s="96">
@@ -52434,242 +53310,242 @@
       <c r="M43" s="95">
         <v>256</v>
       </c>
-      <c r="N43" s="96" t="s">
-        <v>1028</v>
-      </c>
-      <c r="O43" s="96" t="s">
-        <v>1030</v>
+      <c r="N43" t="s">
+        <v>1023</v>
+      </c>
+      <c r="O43" t="s">
+        <v>1025</v>
       </c>
       <c r="P43" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q43" s="96" t="s">
-        <v>1061</v>
-      </c>
-      <c r="R43" s="133" t="s">
-        <v>92</v>
-      </c>
-      <c r="S43" s="114" t="s">
+      <c r="Q43" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R43" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S43" s="6" t="s">
         <v>943</v>
       </c>
-      <c r="T43" s="133" t="s">
-        <v>772</v>
-      </c>
-      <c r="U43" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V43" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W43" s="134" t="s">
+      <c r="T43" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="U43" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V43" t="s">
+        <v>965</v>
+      </c>
+      <c r="W43" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X43" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y43" s="133" t="s">
+      <c r="X43" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y43" s="27" t="s">
         <v>947</v>
       </c>
-      <c r="Z43" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA43" s="134" t="s">
+      <c r="Z43" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA43" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB43" s="135" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC43" s="115" t="s">
+      <c r="AB43" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC43" s="25" t="s">
         <v>949</v>
       </c>
     </row>
-    <row r="44" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A44" s="114">
-        <v>24</v>
-      </c>
-      <c r="B44" s="130" t="s">
-        <v>994</v>
-      </c>
-      <c r="C44" s="130" t="s">
-        <v>995</v>
-      </c>
-      <c r="D44" s="130" t="s">
+        <v>21</v>
+      </c>
+      <c r="B44" s="110" t="s">
+        <v>985</v>
+      </c>
+      <c r="C44" s="110" t="s">
+        <v>986</v>
+      </c>
+      <c r="D44" s="110" t="s">
         <v>941</v>
       </c>
       <c r="E44" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F44" s="125" t="s">
+      <c r="F44" s="111" t="s">
         <v>942</v>
       </c>
-      <c r="G44" s="96">
+      <c r="G44" s="50">
         <v>2</v>
       </c>
-      <c r="H44" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I44" s="114" t="s">
+      <c r="H44" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="I44" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J44" s="131">
+      <c r="J44" s="22">
         <v>2</v>
       </c>
-      <c r="K44" s="132">
+      <c r="K44" s="12">
         <v>1</v>
       </c>
       <c r="L44" s="96">
         <v>1</v>
       </c>
-      <c r="M44" s="96">
+      <c r="M44" s="95">
         <v>256</v>
       </c>
-      <c r="N44" s="96" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O44" s="96" t="s">
-        <v>1030</v>
+      <c r="N44" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O44" t="s">
+        <v>1025</v>
       </c>
       <c r="P44" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q44" s="96" t="s">
+      <c r="Q44" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R44" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="S44" s="6" t="s">
+        <v>943</v>
+      </c>
+      <c r="T44" s="20" t="s">
+        <v>789</v>
+      </c>
+      <c r="U44" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="V44" t="s">
+        <v>965</v>
+      </c>
+      <c r="W44" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X44" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="Y44" s="27" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>978</v>
+      </c>
+      <c r="AA44" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB44" s="113" t="s">
+        <v>966</v>
+      </c>
+      <c r="AC44" s="25" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" s="107" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="101">
+        <v>22</v>
+      </c>
+      <c r="B45" s="102" t="s">
+        <v>987</v>
+      </c>
+      <c r="C45" s="102" t="s">
+        <v>988</v>
+      </c>
+      <c r="D45" s="102" t="s">
+        <v>941</v>
+      </c>
+      <c r="E45" s="103" t="s">
+        <v>976</v>
+      </c>
+      <c r="F45" s="103" t="s">
+        <v>942</v>
+      </c>
+      <c r="G45" s="104">
+        <v>2</v>
+      </c>
+      <c r="H45" s="101" t="s">
+        <v>772</v>
+      </c>
+      <c r="I45" s="101" t="s">
+        <v>11</v>
+      </c>
+      <c r="J45" s="105">
+        <v>2</v>
+      </c>
+      <c r="K45" s="106">
+        <v>1</v>
+      </c>
+      <c r="L45" s="107">
+        <v>1</v>
+      </c>
+      <c r="M45" s="107">
+        <v>256</v>
+      </c>
+      <c r="N45" s="107" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O45" s="107" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P45" s="107" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q45" s="107" t="s">
         <v>1031</v>
       </c>
-      <c r="R44" s="133" t="s">
+      <c r="R45" s="126" t="s">
         <v>92</v>
       </c>
-      <c r="S44" s="114" t="s">
+      <c r="S45" s="101" t="s">
         <v>943</v>
       </c>
-      <c r="T44" s="133" t="s">
+      <c r="T45" s="126" t="s">
         <v>772</v>
       </c>
-      <c r="U44" s="114" t="s">
+      <c r="U45" s="101" t="s">
         <v>989</v>
       </c>
-      <c r="V44" s="96" t="s">
+      <c r="V45" s="107" t="s">
         <v>990</v>
       </c>
-      <c r="W44" s="134" t="s">
+      <c r="W45" s="127" t="s">
         <v>747</v>
       </c>
-      <c r="X44" s="135" t="s">
+      <c r="X45" s="128" t="s">
         <v>946</v>
       </c>
-      <c r="Y44" s="133" t="s">
+      <c r="Y45" s="129" t="s">
         <v>947</v>
       </c>
-      <c r="Z44" s="96" t="s">
+      <c r="Z45" s="107" t="s">
         <v>991</v>
       </c>
-      <c r="AA44" s="134" t="s">
+      <c r="AA45" s="127" t="s">
         <v>753</v>
       </c>
-      <c r="AB44" s="135" t="s">
+      <c r="AB45" s="128" t="s">
         <v>946</v>
       </c>
-      <c r="AC44" s="115" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="114">
-        <v>24</v>
-      </c>
-      <c r="B45" s="130" t="s">
-        <v>1040</v>
-      </c>
-      <c r="C45" s="130" t="s">
-        <v>995</v>
-      </c>
-      <c r="D45" s="130" t="s">
-        <v>941</v>
-      </c>
-      <c r="E45" s="125" t="s">
-        <v>976</v>
-      </c>
-      <c r="F45" s="125" t="s">
-        <v>942</v>
-      </c>
-      <c r="G45" s="50">
-        <v>2</v>
-      </c>
-      <c r="H45" s="114" t="s">
-        <v>772</v>
-      </c>
-      <c r="I45" s="114" t="s">
-        <v>11</v>
-      </c>
-      <c r="J45" s="131">
-        <v>2</v>
-      </c>
-      <c r="K45" s="132">
-        <v>1</v>
-      </c>
-      <c r="L45" s="96">
-        <v>1</v>
-      </c>
-      <c r="M45" s="96">
-        <v>256</v>
-      </c>
-      <c r="N45" s="96" t="s">
-        <v>1029</v>
-      </c>
-      <c r="O45" s="96" t="s">
-        <v>1030</v>
-      </c>
-      <c r="P45" s="96" t="s">
-        <v>914</v>
-      </c>
-      <c r="Q45" s="96" t="s">
-        <v>1041</v>
-      </c>
-      <c r="R45" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="S45" s="114" t="s">
-        <v>943</v>
-      </c>
-      <c r="T45" s="20" t="s">
-        <v>772</v>
-      </c>
-      <c r="U45" s="114" t="s">
-        <v>989</v>
-      </c>
-      <c r="V45" s="96" t="s">
-        <v>990</v>
-      </c>
-      <c r="W45" s="112" t="s">
-        <v>747</v>
-      </c>
-      <c r="X45" s="113" t="s">
-        <v>946</v>
-      </c>
-      <c r="Y45" s="133" t="s">
-        <v>947</v>
-      </c>
-      <c r="Z45" s="96" t="s">
-        <v>991</v>
-      </c>
-      <c r="AA45" s="112" t="s">
-        <v>753</v>
-      </c>
-      <c r="AB45" s="113" t="s">
-        <v>946</v>
-      </c>
-      <c r="AC45" s="115" t="s">
+      <c r="AC45" s="109" t="s">
         <v>949</v>
       </c>
     </row>
     <row r="46" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="114">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B46" s="130" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="C46" s="130" t="s">
-        <v>995</v>
+        <v>988</v>
       </c>
       <c r="D46" s="130" t="s">
         <v>941</v>
@@ -52702,7 +53578,7 @@
         <v>256</v>
       </c>
       <c r="N46" s="96" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="O46" s="96" t="s">
         <v>1030</v>
@@ -52711,7 +53587,7 @@
         <v>914</v>
       </c>
       <c r="Q46" s="96" t="s">
-        <v>1060</v>
+        <v>1041</v>
       </c>
       <c r="R46" s="133" t="s">
         <v>92</v>
@@ -52750,770 +53626,2997 @@
         <v>949</v>
       </c>
     </row>
-    <row r="47" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="74">
+    <row r="47" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="114">
+        <v>22</v>
+      </c>
+      <c r="B47" s="130" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C47" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D47" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E47" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F47" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G47" s="96">
+        <v>2</v>
+      </c>
+      <c r="H47" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I47" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J47" s="131">
+        <v>2</v>
+      </c>
+      <c r="K47" s="132">
+        <v>1</v>
+      </c>
+      <c r="L47" s="96">
+        <v>1</v>
+      </c>
+      <c r="M47" s="96">
+        <v>256</v>
+      </c>
+      <c r="N47" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O47" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P47" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q47" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R47" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S47" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T47" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U47" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V47" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W47" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X47" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y47" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z47" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA47" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB47" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC47" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="114">
+        <v>22</v>
+      </c>
+      <c r="B48" s="130" t="s">
+        <v>1055</v>
+      </c>
+      <c r="C48" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D48" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E48" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F48" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G48" s="96">
+        <v>2</v>
+      </c>
+      <c r="H48" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I48" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J48" s="131">
+        <v>2</v>
+      </c>
+      <c r="K48" s="132">
+        <v>1</v>
+      </c>
+      <c r="L48" s="96">
+        <v>1</v>
+      </c>
+      <c r="M48" s="96">
+        <v>256</v>
+      </c>
+      <c r="N48" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O48" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P48" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q48" s="96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R48" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S48" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T48" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U48" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V48" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W48" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X48" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y48" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z48" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA48" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB48" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC48" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="114">
+        <v>22</v>
+      </c>
+      <c r="B49" s="130" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C49" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D49" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E49" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F49" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G49" s="96">
+        <v>2</v>
+      </c>
+      <c r="H49" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I49" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J49" s="131">
+        <v>2</v>
+      </c>
+      <c r="K49" s="132">
+        <v>1</v>
+      </c>
+      <c r="L49" s="96">
+        <v>1</v>
+      </c>
+      <c r="M49" s="96">
+        <v>256</v>
+      </c>
+      <c r="N49" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O49" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P49" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q49" s="96" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R49" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S49" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T49" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U49" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V49" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W49" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X49" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y49" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z49" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA49" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB49" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC49" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="114">
+        <v>22</v>
+      </c>
+      <c r="B50" s="130" t="s">
+        <v>1063</v>
+      </c>
+      <c r="C50" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D50" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E50" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F50" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G50" s="96">
+        <v>2</v>
+      </c>
+      <c r="H50" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I50" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J50" s="131">
+        <v>2</v>
+      </c>
+      <c r="K50" s="132">
+        <v>1</v>
+      </c>
+      <c r="L50" s="96">
+        <v>1</v>
+      </c>
+      <c r="M50" s="96">
+        <v>256</v>
+      </c>
+      <c r="N50" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O50" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P50" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q50" s="96" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R50" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S50" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T50" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U50" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V50" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W50" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X50" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y50" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z50" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA50" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB50" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC50" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="114">
+        <v>22</v>
+      </c>
+      <c r="B51" s="130" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C51" s="130" t="s">
+        <v>988</v>
+      </c>
+      <c r="D51" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E51" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F51" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G51" s="96">
+        <v>2</v>
+      </c>
+      <c r="H51" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I51" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J51" s="131">
+        <v>2</v>
+      </c>
+      <c r="K51" s="132">
+        <v>1</v>
+      </c>
+      <c r="L51" s="96">
+        <v>1</v>
+      </c>
+      <c r="M51" s="96">
+        <v>256</v>
+      </c>
+      <c r="N51" s="96" t="s">
+        <v>1027</v>
+      </c>
+      <c r="O51" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P51" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q51" s="96" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R51" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S51" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T51" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U51" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V51" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W51" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X51" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y51" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z51" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA51" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB51" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC51" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="114">
+        <v>23</v>
+      </c>
+      <c r="B52" s="130" t="s">
+        <v>992</v>
+      </c>
+      <c r="C52" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D52" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E52" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F52" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G52" s="96">
+        <v>2</v>
+      </c>
+      <c r="H52" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I52" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J52" s="131">
+        <v>2</v>
+      </c>
+      <c r="K52" s="132">
+        <v>1</v>
+      </c>
+      <c r="L52" s="96">
+        <v>1</v>
+      </c>
+      <c r="M52" s="95">
+        <v>256</v>
+      </c>
+      <c r="N52" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O52" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P52" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q52" s="96" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R52" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S52" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T52" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U52" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V52" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W52" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X52" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y52" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z52" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA52" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB52" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC52" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="114">
+        <v>23</v>
+      </c>
+      <c r="B53" s="130" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C53" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D53" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E53" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F53" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G53" s="96">
+        <v>2</v>
+      </c>
+      <c r="H53" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I53" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J53" s="131">
+        <v>2</v>
+      </c>
+      <c r="K53" s="132">
+        <v>1</v>
+      </c>
+      <c r="L53" s="96">
+        <v>1</v>
+      </c>
+      <c r="M53" s="95">
+        <v>256</v>
+      </c>
+      <c r="N53" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O53" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P53" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q53" s="96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R53" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S53" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T53" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U53" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V53" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W53" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X53" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y53" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z53" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA53" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB53" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC53" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="114">
+        <v>23</v>
+      </c>
+      <c r="B54" s="130" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C54" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D54" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E54" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F54" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G54" s="96">
+        <v>2</v>
+      </c>
+      <c r="H54" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I54" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J54" s="131">
+        <v>2</v>
+      </c>
+      <c r="K54" s="132">
+        <v>1</v>
+      </c>
+      <c r="L54" s="96">
+        <v>1</v>
+      </c>
+      <c r="M54" s="95">
+        <v>256</v>
+      </c>
+      <c r="N54" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O54" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P54" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q54" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R54" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S54" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T54" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U54" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V54" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W54" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X54" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y54" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z54" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA54" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB54" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC54" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="114">
+        <v>23</v>
+      </c>
+      <c r="B55" s="130" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C55" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D55" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E55" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F55" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G55" s="96">
+        <v>2</v>
+      </c>
+      <c r="H55" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I55" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J55" s="131">
+        <v>2</v>
+      </c>
+      <c r="K55" s="132">
+        <v>1</v>
+      </c>
+      <c r="L55" s="96">
+        <v>1</v>
+      </c>
+      <c r="M55" s="95">
+        <v>256</v>
+      </c>
+      <c r="N55" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O55" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P55" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q55" s="96" t="s">
+        <v>1061</v>
+      </c>
+      <c r="R55" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S55" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T55" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U55" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V55" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W55" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X55" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y55" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z55" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA55" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB55" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC55" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="114">
+        <v>23</v>
+      </c>
+      <c r="B56" s="130" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C56" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D56" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E56" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F56" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G56" s="96">
+        <v>2</v>
+      </c>
+      <c r="H56" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I56" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J56" s="131">
+        <v>2</v>
+      </c>
+      <c r="K56" s="132">
+        <v>1</v>
+      </c>
+      <c r="L56" s="96">
+        <v>1</v>
+      </c>
+      <c r="M56" s="95">
+        <v>256</v>
+      </c>
+      <c r="N56" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O56" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P56" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q56" s="96" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R56" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S56" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T56" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U56" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V56" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W56" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X56" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y56" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z56" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA56" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB56" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC56" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="114">
+        <v>23</v>
+      </c>
+      <c r="B57" s="130" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C57" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D57" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E57" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F57" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G57" s="96">
+        <v>2</v>
+      </c>
+      <c r="H57" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I57" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J57" s="131">
+        <v>2</v>
+      </c>
+      <c r="K57" s="132">
+        <v>1</v>
+      </c>
+      <c r="L57" s="96">
+        <v>1</v>
+      </c>
+      <c r="M57" s="95">
+        <v>256</v>
+      </c>
+      <c r="N57" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O57" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P57" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q57" s="96" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R57" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S57" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T57" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U57" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V57" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W57" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X57" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y57" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z57" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA57" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB57" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC57" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="114">
+        <v>23</v>
+      </c>
+      <c r="B58" s="130" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C58" s="130" t="s">
+        <v>993</v>
+      </c>
+      <c r="D58" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E58" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F58" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G58" s="96">
+        <v>2</v>
+      </c>
+      <c r="H58" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I58" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J58" s="131">
+        <v>2</v>
+      </c>
+      <c r="K58" s="132">
+        <v>1</v>
+      </c>
+      <c r="L58" s="96">
+        <v>1</v>
+      </c>
+      <c r="M58" s="95">
+        <v>256</v>
+      </c>
+      <c r="N58" s="96" t="s">
+        <v>1028</v>
+      </c>
+      <c r="O58" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P58" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q58" s="96" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R58" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S58" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T58" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U58" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V58" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W58" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X58" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y58" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z58" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA58" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB58" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC58" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="114">
         <v>24</v>
       </c>
-      <c r="B47" s="116" t="s">
+      <c r="B59" s="130" t="s">
+        <v>994</v>
+      </c>
+      <c r="C59" s="130" t="s">
+        <v>995</v>
+      </c>
+      <c r="D59" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E59" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F59" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G59" s="96">
+        <v>2</v>
+      </c>
+      <c r="H59" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I59" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J59" s="131">
+        <v>2</v>
+      </c>
+      <c r="K59" s="132">
+        <v>1</v>
+      </c>
+      <c r="L59" s="96">
+        <v>1</v>
+      </c>
+      <c r="M59" s="96">
+        <v>256</v>
+      </c>
+      <c r="N59" s="96" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O59" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P59" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q59" s="96" t="s">
+        <v>1031</v>
+      </c>
+      <c r="R59" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S59" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T59" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U59" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V59" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W59" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X59" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y59" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z59" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA59" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB59" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC59" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="114">
+        <v>24</v>
+      </c>
+      <c r="B60" s="130" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C60" s="130" t="s">
+        <v>995</v>
+      </c>
+      <c r="D60" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E60" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F60" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G60" s="50">
+        <v>2</v>
+      </c>
+      <c r="H60" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I60" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J60" s="131">
+        <v>2</v>
+      </c>
+      <c r="K60" s="132">
+        <v>1</v>
+      </c>
+      <c r="L60" s="96">
+        <v>1</v>
+      </c>
+      <c r="M60" s="96">
+        <v>256</v>
+      </c>
+      <c r="N60" s="96" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O60" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P60" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q60" s="96" t="s">
+        <v>1041</v>
+      </c>
+      <c r="R60" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="S60" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T60" s="20" t="s">
+        <v>772</v>
+      </c>
+      <c r="U60" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V60" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W60" s="112" t="s">
+        <v>747</v>
+      </c>
+      <c r="X60" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y60" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z60" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA60" s="112" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB60" s="113" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC60" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="114">
+        <v>24</v>
+      </c>
+      <c r="B61" s="130" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C61" s="130" t="s">
+        <v>995</v>
+      </c>
+      <c r="D61" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E61" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F61" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G61" s="96">
+        <v>2</v>
+      </c>
+      <c r="H61" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I61" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J61" s="131">
+        <v>2</v>
+      </c>
+      <c r="K61" s="132">
+        <v>1</v>
+      </c>
+      <c r="L61" s="96">
+        <v>1</v>
+      </c>
+      <c r="M61" s="96">
+        <v>256</v>
+      </c>
+      <c r="N61" s="96" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O61" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P61" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q61" s="96" t="s">
+        <v>1060</v>
+      </c>
+      <c r="R61" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S61" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T61" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U61" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V61" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W61" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X61" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y61" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z61" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA61" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB61" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC61" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="62" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="114">
+        <v>24</v>
+      </c>
+      <c r="B62" s="130" t="s">
         <v>1059</v>
       </c>
-      <c r="C47" s="116" t="s">
+      <c r="C62" s="130" t="s">
         <v>995</v>
       </c>
-      <c r="D47" s="116" t="s">
+      <c r="D62" s="130" t="s">
         <v>941</v>
       </c>
-      <c r="E47" s="117" t="s">
+      <c r="E62" s="125" t="s">
         <v>976</v>
       </c>
-      <c r="F47" s="117" t="s">
+      <c r="F62" s="125" t="s">
         <v>942</v>
       </c>
-      <c r="G47" s="118">
+      <c r="G62" s="50">
         <v>2</v>
       </c>
-      <c r="H47" s="74" t="s">
+      <c r="H62" s="114" t="s">
         <v>772</v>
       </c>
-      <c r="I47" s="74" t="s">
+      <c r="I62" s="114" t="s">
         <v>11</v>
       </c>
-      <c r="J47" s="119">
+      <c r="J62" s="131">
         <v>2</v>
       </c>
-      <c r="K47" s="120">
-        <v>1</v>
-      </c>
-      <c r="L47" s="73">
-        <v>1</v>
-      </c>
-      <c r="M47" s="73">
+      <c r="K62" s="132">
+        <v>1</v>
+      </c>
+      <c r="L62" s="96">
+        <v>1</v>
+      </c>
+      <c r="M62" s="96">
         <v>256</v>
       </c>
-      <c r="N47" s="73" t="s">
+      <c r="N62" s="96" t="s">
         <v>1029</v>
       </c>
-      <c r="O47" s="73" t="s">
+      <c r="O62" s="96" t="s">
         <v>1030</v>
       </c>
-      <c r="P47" s="73" t="s">
+      <c r="P62" s="96" t="s">
         <v>914</v>
       </c>
-      <c r="Q47" s="73" t="s">
+      <c r="Q62" s="96" t="s">
         <v>1061</v>
       </c>
-      <c r="R47" s="80" t="s">
+      <c r="R62" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="S47" s="74" t="s">
+      <c r="S62" s="114" t="s">
         <v>943</v>
       </c>
-      <c r="T47" s="80" t="s">
+      <c r="T62" s="20" t="s">
         <v>772</v>
       </c>
-      <c r="U47" s="74" t="s">
+      <c r="U62" s="114" t="s">
         <v>989</v>
       </c>
-      <c r="V47" s="73" t="s">
+      <c r="V62" s="96" t="s">
         <v>990</v>
       </c>
-      <c r="W47" s="121" t="s">
+      <c r="W62" s="112" t="s">
         <v>747</v>
       </c>
-      <c r="X47" s="124" t="s">
+      <c r="X62" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="Y47" s="85" t="s">
+      <c r="Y62" s="133" t="s">
         <v>947</v>
       </c>
-      <c r="Z47" s="73" t="s">
+      <c r="Z62" s="96" t="s">
         <v>991</v>
       </c>
-      <c r="AA47" s="121" t="s">
+      <c r="AA62" s="112" t="s">
         <v>753</v>
       </c>
-      <c r="AB47" s="124" t="s">
+      <c r="AB62" s="113" t="s">
         <v>946</v>
       </c>
-      <c r="AC47" s="122" t="s">
+      <c r="AC62" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="63" spans="1:29" s="96" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="114">
+        <v>24</v>
+      </c>
+      <c r="B63" s="130" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C63" s="130" t="s">
+        <v>995</v>
+      </c>
+      <c r="D63" s="130" t="s">
+        <v>941</v>
+      </c>
+      <c r="E63" s="125" t="s">
+        <v>976</v>
+      </c>
+      <c r="F63" s="125" t="s">
+        <v>942</v>
+      </c>
+      <c r="G63" s="96">
+        <v>2</v>
+      </c>
+      <c r="H63" s="114" t="s">
+        <v>772</v>
+      </c>
+      <c r="I63" s="114" t="s">
+        <v>11</v>
+      </c>
+      <c r="J63" s="131">
+        <v>2</v>
+      </c>
+      <c r="K63" s="132">
+        <v>1</v>
+      </c>
+      <c r="L63" s="96">
+        <v>1</v>
+      </c>
+      <c r="M63" s="96">
+        <v>256</v>
+      </c>
+      <c r="N63" s="96" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O63" s="96" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P63" s="96" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q63" s="96" t="s">
+        <v>1064</v>
+      </c>
+      <c r="R63" s="133" t="s">
+        <v>92</v>
+      </c>
+      <c r="S63" s="114" t="s">
+        <v>943</v>
+      </c>
+      <c r="T63" s="133" t="s">
+        <v>772</v>
+      </c>
+      <c r="U63" s="114" t="s">
+        <v>989</v>
+      </c>
+      <c r="V63" s="96" t="s">
+        <v>990</v>
+      </c>
+      <c r="W63" s="134" t="s">
+        <v>747</v>
+      </c>
+      <c r="X63" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y63" s="133" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z63" s="96" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA63" s="134" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB63" s="135" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC63" s="115" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="64" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="74">
+        <v>24</v>
+      </c>
+      <c r="B64" s="116" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C64" s="116" t="s">
+        <v>995</v>
+      </c>
+      <c r="D64" s="116" t="s">
+        <v>941</v>
+      </c>
+      <c r="E64" s="117" t="s">
+        <v>976</v>
+      </c>
+      <c r="F64" s="117" t="s">
+        <v>942</v>
+      </c>
+      <c r="G64" s="118">
+        <v>2</v>
+      </c>
+      <c r="H64" s="74" t="s">
+        <v>772</v>
+      </c>
+      <c r="I64" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J64" s="119">
+        <v>2</v>
+      </c>
+      <c r="K64" s="120">
+        <v>1</v>
+      </c>
+      <c r="L64" s="73">
+        <v>1</v>
+      </c>
+      <c r="M64" s="73">
+        <v>256</v>
+      </c>
+      <c r="N64" s="73" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O64" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P64" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q64" s="73" t="s">
+        <v>1065</v>
+      </c>
+      <c r="R64" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S64" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="T64" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="U64" s="74" t="s">
+        <v>989</v>
+      </c>
+      <c r="V64" s="73" t="s">
+        <v>990</v>
+      </c>
+      <c r="W64" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="X64" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y64" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z64" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA64" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB64" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC64" s="122" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:29" s="73" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="74">
+        <v>24</v>
+      </c>
+      <c r="B65" s="116" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C65" s="116" t="s">
+        <v>995</v>
+      </c>
+      <c r="D65" s="116" t="s">
+        <v>941</v>
+      </c>
+      <c r="E65" s="117" t="s">
+        <v>976</v>
+      </c>
+      <c r="F65" s="117" t="s">
+        <v>942</v>
+      </c>
+      <c r="G65" s="118">
+        <v>2</v>
+      </c>
+      <c r="H65" s="74" t="s">
+        <v>772</v>
+      </c>
+      <c r="I65" s="74" t="s">
+        <v>11</v>
+      </c>
+      <c r="J65" s="119">
+        <v>2</v>
+      </c>
+      <c r="K65" s="120">
+        <v>1</v>
+      </c>
+      <c r="L65" s="73">
+        <v>1</v>
+      </c>
+      <c r="M65" s="73">
+        <v>256</v>
+      </c>
+      <c r="N65" s="73" t="s">
+        <v>1029</v>
+      </c>
+      <c r="O65" s="73" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P65" s="73" t="s">
+        <v>914</v>
+      </c>
+      <c r="Q65" s="73" t="s">
+        <v>1079</v>
+      </c>
+      <c r="R65" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="S65" s="74" t="s">
+        <v>943</v>
+      </c>
+      <c r="T65" s="80" t="s">
+        <v>772</v>
+      </c>
+      <c r="U65" s="74" t="s">
+        <v>989</v>
+      </c>
+      <c r="V65" s="73" t="s">
+        <v>990</v>
+      </c>
+      <c r="W65" s="121" t="s">
+        <v>747</v>
+      </c>
+      <c r="X65" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="Y65" s="85" t="s">
+        <v>947</v>
+      </c>
+      <c r="Z65" s="73" t="s">
+        <v>991</v>
+      </c>
+      <c r="AA65" s="121" t="s">
+        <v>753</v>
+      </c>
+      <c r="AB65" s="124" t="s">
+        <v>946</v>
+      </c>
+      <c r="AC65" s="122" t="s">
         <v>949</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="I2:I5 I21 I25 I29 I33:I36 I40 I44">
-    <cfRule type="containsText" dxfId="298" priority="302" operator="containsText" text="iso">
+  <conditionalFormatting sqref="I2:I5 I21 I28 I35 I42:I45 I52 I59">
+    <cfRule type="containsText" dxfId="388" priority="464" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="297" priority="303" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="465" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="296" priority="304" operator="equal">
+    <cfRule type="cellIs" dxfId="386" priority="466" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="295" priority="305" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="385" priority="467" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E2:F2 F3:F5 E3:E6 E8 E10 E12 E40 E44 E14 E16 E18:E22 E25:E26 E29 E32:E36">
-    <cfRule type="cellIs" dxfId="294" priority="300" operator="equal">
+  <conditionalFormatting sqref="E2:F2 F3:F5 E3:E6 E8 E10 E12 E52 E59 E14 E16 E18:E22 E28:E29 E35 E38 E42:E45">
+    <cfRule type="cellIs" dxfId="384" priority="462" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="293" priority="301" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="463" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I1">
-    <cfRule type="containsText" dxfId="292" priority="296" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="382" priority="458" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="291" priority="297" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="459" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="290" priority="298" operator="equal">
+    <cfRule type="cellIs" dxfId="380" priority="460" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="289" priority="299" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="379" priority="461" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:F1">
-    <cfRule type="cellIs" dxfId="288" priority="294" operator="equal">
+    <cfRule type="cellIs" dxfId="378" priority="456" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="287" priority="295" operator="equal">
+    <cfRule type="cellIs" dxfId="377" priority="457" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6 I8 I10 I12 I14 I16">
-    <cfRule type="containsText" dxfId="286" priority="290" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="376" priority="452" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I6)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="285" priority="291" operator="equal">
+    <cfRule type="cellIs" dxfId="375" priority="453" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="284" priority="292" operator="equal">
+    <cfRule type="cellIs" dxfId="374" priority="454" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="283" priority="293" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="373" priority="455" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16">
-    <cfRule type="cellIs" dxfId="282" priority="288" operator="equal">
+    <cfRule type="cellIs" dxfId="372" priority="450" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="289" operator="equal">
+    <cfRule type="cellIs" dxfId="371" priority="451" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6 F8 F10 F12 F14 F16">
-    <cfRule type="cellIs" dxfId="280" priority="287" operator="equal">
+    <cfRule type="cellIs" dxfId="370" priority="449" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:I20">
-    <cfRule type="containsText" dxfId="279" priority="283" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="369" priority="445" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I18)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="278" priority="284" operator="equal">
+    <cfRule type="cellIs" dxfId="368" priority="446" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="277" priority="285" operator="equal">
+    <cfRule type="cellIs" dxfId="367" priority="447" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="286" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="366" priority="448" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F22 F40 F44 F25:F26 F29 F32:F36">
-    <cfRule type="cellIs" dxfId="275" priority="281" operator="equal">
+  <conditionalFormatting sqref="F18:F22 F52 F59 F28:F29 F35 F38 F42:F45">
+    <cfRule type="cellIs" dxfId="365" priority="443" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="274" priority="282" operator="equal">
+    <cfRule type="cellIs" dxfId="364" priority="444" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18:F22 F40 F44 F25:F26 F29 F32:F36">
-    <cfRule type="cellIs" dxfId="273" priority="280" operator="equal">
+  <conditionalFormatting sqref="F18:F22 F52 F59 F28:F29 F35 F38 F42:F45">
+    <cfRule type="cellIs" dxfId="363" priority="442" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I22">
-    <cfRule type="containsText" dxfId="272" priority="267" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="362" priority="429" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I22)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="268" operator="equal">
+    <cfRule type="cellIs" dxfId="361" priority="430" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="269" operator="equal">
+    <cfRule type="cellIs" dxfId="360" priority="431" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="269" priority="270" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="359" priority="432" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I26">
-    <cfRule type="containsText" dxfId="268" priority="258" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I26)))</formula>
+  <conditionalFormatting sqref="I29">
+    <cfRule type="containsText" dxfId="358" priority="420" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I29)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="357" priority="421" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="356" priority="422" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="265" priority="261" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I26)))</formula>
+    <cfRule type="containsText" dxfId="355" priority="423" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32">
-    <cfRule type="containsText" dxfId="264" priority="249" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I32)))</formula>
+  <conditionalFormatting sqref="I38">
+    <cfRule type="containsText" dxfId="354" priority="411" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I38)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="263" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="353" priority="412" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="262" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="352" priority="413" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="252" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I32)))</formula>
+    <cfRule type="containsText" dxfId="351" priority="414" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="260" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="350" priority="404" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="349" priority="405" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7">
-    <cfRule type="containsText" dxfId="258" priority="238" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="348" priority="400" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I7)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="347" priority="401" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="256" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="346" priority="402" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="241" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="345" priority="403" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="254" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="344" priority="398" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="253" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="343" priority="399" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="252" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="342" priority="397" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="251" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="341" priority="395" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="340" priority="396" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I9">
-    <cfRule type="containsText" dxfId="249" priority="229" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="339" priority="391" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I9)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="338" priority="392" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="247" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="337" priority="393" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="232" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="336" priority="394" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="245" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="335" priority="389" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="244" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="334" priority="390" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="243" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="333" priority="388" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="242" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="332" priority="386" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="331" priority="387" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I11">
-    <cfRule type="containsText" dxfId="240" priority="220" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="330" priority="382" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I11)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="329" priority="383" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="238" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="328" priority="384" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="223" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="327" priority="385" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="236" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="326" priority="380" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="235" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="325" priority="381" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="234" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="324" priority="379" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I46">
+    <cfRule type="containsText" dxfId="323" priority="375" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I46)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="322" priority="376" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="321" priority="377" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="320" priority="378" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I46)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E46">
+    <cfRule type="cellIs" dxfId="319" priority="373" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="318" priority="374" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="317" priority="371" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="316" priority="372" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F46">
+    <cfRule type="cellIs" dxfId="315" priority="370" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53">
+    <cfRule type="containsText" dxfId="314" priority="366" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I53)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="313" priority="367" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="312" priority="368" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="311" priority="369" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I53)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E53">
+    <cfRule type="cellIs" dxfId="310" priority="364" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="309" priority="365" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="cellIs" dxfId="308" priority="362" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="307" priority="363" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F53">
+    <cfRule type="cellIs" dxfId="306" priority="361" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60">
+    <cfRule type="containsText" dxfId="305" priority="357" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I60)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="304" priority="358" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="303" priority="359" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="302" priority="360" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I60)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E60">
+    <cfRule type="cellIs" dxfId="301" priority="355" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="300" priority="356" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="299" priority="353" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="298" priority="354" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F60">
+    <cfRule type="cellIs" dxfId="297" priority="352" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E13">
+    <cfRule type="cellIs" dxfId="296" priority="350" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="295" priority="351" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="containsText" dxfId="294" priority="346" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="293" priority="347" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="292" priority="348" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="291" priority="349" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I13)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="290" priority="344" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="289" priority="345" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F13">
+    <cfRule type="cellIs" dxfId="288" priority="343" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E15">
+    <cfRule type="cellIs" dxfId="287" priority="341" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="286" priority="342" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="containsText" dxfId="285" priority="337" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I15)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="284" priority="338" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="283" priority="339" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="282" priority="340" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I15)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="281" priority="335" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="280" priority="336" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F15">
+    <cfRule type="cellIs" dxfId="279" priority="334" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="278" priority="332" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="277" priority="333" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="containsText" dxfId="276" priority="328" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I17)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="275" priority="329" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="274" priority="330" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="273" priority="331" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="272" priority="326" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="271" priority="327" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="270" priority="325" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E23">
+    <cfRule type="cellIs" dxfId="269" priority="323" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="268" priority="324" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="267" priority="321" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="266" priority="322" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F23">
+    <cfRule type="cellIs" dxfId="265" priority="320" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I23">
+    <cfRule type="containsText" dxfId="264" priority="316" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I23)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="263" priority="317" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="262" priority="318" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="261" priority="319" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E24">
+    <cfRule type="cellIs" dxfId="260" priority="314" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="259" priority="315" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="258" priority="312" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="257" priority="313" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F24">
+    <cfRule type="cellIs" dxfId="256" priority="311" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I24">
+    <cfRule type="containsText" dxfId="255" priority="307" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I24)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="254" priority="308" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="253" priority="309" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="252" priority="310" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="251" priority="305" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="250" priority="306" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="249" priority="303" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="248" priority="304" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30">
+    <cfRule type="cellIs" dxfId="247" priority="302" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I30">
+    <cfRule type="containsText" dxfId="246" priority="298" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I30)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="245" priority="299" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="244" priority="300" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="243" priority="301" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="cellIs" dxfId="242" priority="296" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="241" priority="297" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="240" priority="294" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="239" priority="295" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="cellIs" dxfId="238" priority="293" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I31">
+    <cfRule type="containsText" dxfId="237" priority="289" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I31)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="236" priority="290" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="235" priority="291" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="234" priority="292" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I31)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I37">
-    <cfRule type="containsText" dxfId="233" priority="213" operator="containsText" text="iso">
+    <cfRule type="containsText" dxfId="233" priority="271" operator="containsText" text="iso">
       <formula>NOT(ISERROR(SEARCH("iso",I37)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="272" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="273" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="230" priority="216" operator="containsText" text="sr">
+    <cfRule type="containsText" dxfId="230" priority="274" operator="containsText" text="sr">
       <formula>NOT(ISERROR(SEARCH("sr",I37)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="cellIs" dxfId="229" priority="211" operator="equal">
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="229" priority="199" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="cellIs" dxfId="228" priority="287" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="228" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="288" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="226" priority="285" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="225" priority="286" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="cellIs" dxfId="224" priority="284" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I36">
+    <cfRule type="containsText" dxfId="223" priority="280" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I36)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="222" priority="281" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="221" priority="282" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="220" priority="283" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I36)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="cellIs" dxfId="219" priority="278" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="218" priority="279" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="227" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="276" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="226" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="277" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="cellIs" dxfId="225" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="275" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I41">
-    <cfRule type="containsText" dxfId="224" priority="204" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I41)))</formula>
+  <conditionalFormatting sqref="I47">
+    <cfRule type="containsText" dxfId="214" priority="213" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I47)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="214" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="215" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="221" priority="207" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I41)))</formula>
+    <cfRule type="containsText" dxfId="211" priority="216" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I47)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E41">
-    <cfRule type="cellIs" dxfId="220" priority="202" operator="equal">
+  <conditionalFormatting sqref="E47">
+    <cfRule type="cellIs" dxfId="210" priority="211" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="219" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="212" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="218" priority="200" operator="equal">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="208" priority="209" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="217" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="210" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F41">
-    <cfRule type="cellIs" dxfId="216" priority="199" operator="equal">
+  <conditionalFormatting sqref="F47">
+    <cfRule type="cellIs" dxfId="206" priority="208" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I45">
-    <cfRule type="containsText" dxfId="215" priority="195" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I45)))</formula>
+  <conditionalFormatting sqref="I48">
+    <cfRule type="containsText" dxfId="205" priority="204" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I48)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="205" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="206" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="212" priority="198" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I45)))</formula>
+    <cfRule type="containsText" dxfId="202" priority="207" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I48)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E45">
-    <cfRule type="cellIs" dxfId="211" priority="193" operator="equal">
+  <conditionalFormatting sqref="E48">
+    <cfRule type="cellIs" dxfId="201" priority="202" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="210" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="203" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="209" priority="191" operator="equal">
+  <conditionalFormatting sqref="F48">
+    <cfRule type="cellIs" dxfId="199" priority="200" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="208" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="201" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F45">
-    <cfRule type="cellIs" dxfId="207" priority="190" operator="equal">
+  <conditionalFormatting sqref="I54">
+    <cfRule type="containsText" dxfId="197" priority="195" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I54)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="196" priority="196" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="195" priority="197" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="194" priority="198" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I54)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E54">
+    <cfRule type="cellIs" dxfId="193" priority="193" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="192" priority="194" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="191" priority="191" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="190" priority="192" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F54">
+    <cfRule type="cellIs" dxfId="189" priority="190" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="206" priority="188" operator="equal">
+  <conditionalFormatting sqref="I55">
+    <cfRule type="containsText" dxfId="188" priority="186" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I55)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="187" priority="187" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="186" priority="188" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="185" priority="189" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I55)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E55">
+    <cfRule type="cellIs" dxfId="184" priority="184" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="185" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="containsText" dxfId="204" priority="184" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I13)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="185" operator="equal">
-      <formula>"dn"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="202" priority="186" operator="equal">
-      <formula>"dcv"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="187" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I13)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="200" priority="182" operator="equal">
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="182" priority="182" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="199" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="183" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="198" priority="181" operator="equal">
+  <conditionalFormatting sqref="F55">
+    <cfRule type="cellIs" dxfId="180" priority="181" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="197" priority="179" operator="equal">
+  <conditionalFormatting sqref="I61">
+    <cfRule type="containsText" dxfId="179" priority="177" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I61)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="178" priority="178" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="177" priority="179" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="176" priority="180" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I61)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E61">
+    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="176" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="containsText" dxfId="195" priority="175" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I15)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="176" operator="equal">
-      <formula>"dn"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="193" priority="177" operator="equal">
-      <formula>"dcv"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="178" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I15)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="191" priority="173" operator="equal">
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="173" priority="173" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="190" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="174" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="189" priority="172" operator="equal">
+  <conditionalFormatting sqref="F61">
+    <cfRule type="cellIs" dxfId="171" priority="172" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E17">
-    <cfRule type="cellIs" dxfId="188" priority="170" operator="equal">
+  <conditionalFormatting sqref="I62">
+    <cfRule type="containsText" dxfId="170" priority="168" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I62)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="169" priority="169" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="168" priority="170" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="167" priority="171" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I62)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E62">
+    <cfRule type="cellIs" dxfId="166" priority="166" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="167" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="containsText" dxfId="186" priority="166" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I17)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="167" operator="equal">
-      <formula>"dn"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="184" priority="168" operator="equal">
-      <formula>"dcv"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="169" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I17)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="182" priority="164" operator="equal">
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="164" priority="164" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="181" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="165" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F17">
-    <cfRule type="cellIs" dxfId="180" priority="163" operator="equal">
+  <conditionalFormatting sqref="F62">
+    <cfRule type="cellIs" dxfId="162" priority="163" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E23">
-    <cfRule type="cellIs" dxfId="179" priority="161" operator="equal">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="161" priority="154" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I49">
+    <cfRule type="containsText" dxfId="160" priority="159" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I49)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="159" priority="160" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="158" priority="161" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="157" priority="162" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I49)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E49">
+    <cfRule type="cellIs" dxfId="156" priority="157" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="158" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="177" priority="159" operator="equal">
+  <conditionalFormatting sqref="F49">
+    <cfRule type="cellIs" dxfId="154" priority="155" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="156" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F23">
-    <cfRule type="cellIs" dxfId="175" priority="158" operator="equal">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="152" priority="145" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I23">
-    <cfRule type="containsText" dxfId="174" priority="154" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I23)))</formula>
+  <conditionalFormatting sqref="I50">
+    <cfRule type="containsText" dxfId="151" priority="150" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I50)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="173" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="151" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="172" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="152" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="157" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I23)))</formula>
+    <cfRule type="containsText" dxfId="148" priority="153" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I50)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="170" priority="152" operator="equal">
+  <conditionalFormatting sqref="E50">
+    <cfRule type="cellIs" dxfId="147" priority="148" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="149" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="168" priority="150" operator="equal">
+  <conditionalFormatting sqref="F50">
+    <cfRule type="cellIs" dxfId="145" priority="146" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="147" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F24">
-    <cfRule type="cellIs" dxfId="166" priority="149" operator="equal">
+  <conditionalFormatting sqref="I56">
+    <cfRule type="containsText" dxfId="143" priority="141" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I56)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="142" priority="142" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="141" priority="143" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="140" priority="144" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I56)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E56">
+    <cfRule type="cellIs" dxfId="139" priority="139" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="138" priority="140" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="137" priority="137" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="136" priority="138" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F56">
+    <cfRule type="cellIs" dxfId="135" priority="136" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I24">
-    <cfRule type="containsText" dxfId="165" priority="145" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I24)))</formula>
+  <conditionalFormatting sqref="I57">
+    <cfRule type="containsText" dxfId="134" priority="132" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I57)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="164" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="133" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="163" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="134" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="148" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I24)))</formula>
+    <cfRule type="containsText" dxfId="131" priority="135" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I57)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E27">
-    <cfRule type="cellIs" dxfId="161" priority="143" operator="equal">
+  <conditionalFormatting sqref="E57">
+    <cfRule type="cellIs" dxfId="130" priority="130" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="131" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="159" priority="141" operator="equal">
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="128" priority="128" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="129" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F27">
-    <cfRule type="cellIs" dxfId="157" priority="140" operator="equal">
+  <conditionalFormatting sqref="F57">
+    <cfRule type="cellIs" dxfId="126" priority="127" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I27">
-    <cfRule type="containsText" dxfId="156" priority="136" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I27)))</formula>
+  <conditionalFormatting sqref="I63">
+    <cfRule type="containsText" dxfId="125" priority="123" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I63)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="155" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="124" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="154" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="125" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="139" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I27)))</formula>
+    <cfRule type="containsText" dxfId="122" priority="126" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I63)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="152" priority="134" operator="equal">
+  <conditionalFormatting sqref="E63">
+    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="122" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="150" priority="132" operator="equal">
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F28">
-    <cfRule type="cellIs" dxfId="148" priority="131" operator="equal">
+  <conditionalFormatting sqref="F63">
+    <cfRule type="cellIs" dxfId="117" priority="118" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I28">
-    <cfRule type="containsText" dxfId="147" priority="127" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I28)))</formula>
+  <conditionalFormatting sqref="I64">
+    <cfRule type="containsText" dxfId="116" priority="114" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I64)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="146" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="115" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="145" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="116" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="130" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I28)))</formula>
+    <cfRule type="containsText" dxfId="113" priority="117" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I64)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31">
-    <cfRule type="containsText" dxfId="143" priority="109" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I31)))</formula>
+  <conditionalFormatting sqref="E64">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
+      <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="113" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="cellIs" dxfId="110" priority="110" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="109" priority="111" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F64">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E25">
+    <cfRule type="cellIs" dxfId="107" priority="107" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="106" priority="108" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="104" priority="106" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F25">
+    <cfRule type="cellIs" dxfId="103" priority="104" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I25">
+    <cfRule type="containsText" dxfId="102" priority="100" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I25)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="102" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="140" priority="112" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I31)))</formula>
+    <cfRule type="containsText" dxfId="99" priority="103" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="98" priority="98" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="99" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="96" priority="96" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="97" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26">
+    <cfRule type="cellIs" dxfId="94" priority="95" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I26">
+    <cfRule type="containsText" dxfId="93" priority="91" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I26)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="93" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="90" priority="94" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="90" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="87" priority="87" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="86" priority="88" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="cellIs" dxfId="85" priority="86" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I32">
+    <cfRule type="containsText" dxfId="84" priority="82" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I32)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="83" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="84" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="81" priority="85" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I32)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="cellIs" dxfId="80" priority="80" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="79" priority="81" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="78" priority="78" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="79" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I33">
+    <cfRule type="containsText" dxfId="75" priority="73" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I33)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="74" priority="74" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="75" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="72" priority="76" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I33)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="72" operator="equal">
+      <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="126" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="69" operator="equal">
+      <formula>"ex"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="70" operator="equal">
+      <formula>"in"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="cellIs" dxfId="67" priority="68" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="125" priority="125" operator="equal">
+  <conditionalFormatting sqref="I39">
+    <cfRule type="containsText" dxfId="66" priority="64" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I39)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="65" priority="65" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="64" priority="66" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="67" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="cellIs" dxfId="62" priority="62" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="63" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="123" priority="123" operator="equal">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="60" priority="60" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="61" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F30">
-    <cfRule type="cellIs" dxfId="121" priority="122" operator="equal">
+  <conditionalFormatting sqref="F40">
+    <cfRule type="cellIs" dxfId="58" priority="59" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I30">
-    <cfRule type="containsText" dxfId="120" priority="118" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I30)))</formula>
+  <conditionalFormatting sqref="I40">
+    <cfRule type="containsText" dxfId="57" priority="55" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I40)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="56" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="118" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="57" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="121" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I30)))</formula>
+    <cfRule type="containsText" dxfId="54" priority="58" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31">
-    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
-      <formula>"ex"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="117" operator="equal">
-      <formula>"in"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="114" priority="114" operator="equal">
-      <formula>"ex"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="115" operator="equal">
-      <formula>"in"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F31">
-    <cfRule type="cellIs" dxfId="112" priority="113" operator="equal">
-      <formula>"ft"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I38">
+  <conditionalFormatting sqref="I65">
     <cfRule type="containsText" dxfId="53" priority="51" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",I65)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="52" priority="52" operator="equal">
       <formula>"dn"</formula>
@@ -53522,10 +56625,10 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="50" priority="54" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I38)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",I65)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
+  <conditionalFormatting sqref="E65">
     <cfRule type="cellIs" dxfId="49" priority="49" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
@@ -53533,7 +56636,7 @@
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F65">
     <cfRule type="cellIs" dxfId="47" priority="47" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
@@ -53541,149 +56644,154 @@
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F38">
+  <conditionalFormatting sqref="F65">
     <cfRule type="cellIs" dxfId="45" priority="46" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I39">
-    <cfRule type="containsText" dxfId="44" priority="42" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I39)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="43" operator="equal">
-      <formula>"dn"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="44" operator="equal">
-      <formula>"dcv"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="45" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I39)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="40" priority="40" operator="equal">
+  <conditionalFormatting sqref="E41">
+    <cfRule type="cellIs" dxfId="44" priority="44" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="39" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="45" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F39">
-    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="42" priority="42" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="43" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I42">
-    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I42)))</formula>
+  <conditionalFormatting sqref="F41">
+    <cfRule type="cellIs" dxfId="40" priority="41" operator="equal">
+      <formula>"ft"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="34" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I41">
+    <cfRule type="containsText" dxfId="39" priority="37" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I41)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="38" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="39" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I42)))</formula>
+    <cfRule type="containsText" dxfId="36" priority="40" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I41)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E42">
-    <cfRule type="cellIs" dxfId="31" priority="31" operator="equal">
+  <conditionalFormatting sqref="E27">
+    <cfRule type="cellIs" dxfId="35" priority="35" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="36" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="33" priority="33" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="34" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F42">
-    <cfRule type="cellIs" dxfId="27" priority="28" operator="equal">
+  <conditionalFormatting sqref="F27">
+    <cfRule type="cellIs" dxfId="31" priority="32" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I43">
-    <cfRule type="containsText" dxfId="26" priority="24" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I43)))</formula>
+  <conditionalFormatting sqref="I27">
+    <cfRule type="containsText" dxfId="30" priority="28" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I27)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="29" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="30" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="27" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I43)))</formula>
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I27)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E43">
-    <cfRule type="cellIs" dxfId="22" priority="22" operator="equal">
+  <conditionalFormatting sqref="E34">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="24" priority="24" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="25" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F43">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+  <conditionalFormatting sqref="F34">
+    <cfRule type="cellIs" dxfId="22" priority="23" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I46">
-    <cfRule type="containsText" dxfId="17" priority="15" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I46)))</formula>
+  <conditionalFormatting sqref="I34">
+    <cfRule type="containsText" dxfId="21" priority="19" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I34)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" operator="equal">
       <formula>"dn"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"dcv"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="18" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I46)))</formula>
+    <cfRule type="containsText" dxfId="18" priority="22" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I34)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E46">
-    <cfRule type="cellIs" dxfId="13" priority="13" operator="equal">
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+      <formula>"ft"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51">
+    <cfRule type="containsText" dxfId="16" priority="15" operator="containsText" text="iso">
+      <formula>NOT(ISERROR(SEARCH("iso",I51)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="16" operator="equal">
+      <formula>"dn"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="17" operator="equal">
+      <formula>"dcv"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="18" operator="containsText" text="sr">
+      <formula>NOT(ISERROR(SEARCH("sr",I51)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E51">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+  <conditionalFormatting sqref="F51">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F46">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
-      <formula>"ft"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I47">
+  <conditionalFormatting sqref="I58">
     <cfRule type="containsText" dxfId="8" priority="6" operator="containsText" text="iso">
-      <formula>NOT(ISERROR(SEARCH("iso",I47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("iso",I58)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>"dn"</formula>
@@ -53692,10 +56800,10 @@
       <formula>"dcv"</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="5" priority="9" operator="containsText" text="sr">
-      <formula>NOT(ISERROR(SEARCH("sr",I47)))</formula>
+      <formula>NOT(ISERROR(SEARCH("sr",I58)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E47">
+  <conditionalFormatting sqref="E58">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
@@ -53703,7 +56811,7 @@
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F58">
     <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"ex"</formula>
     </cfRule>
@@ -53711,7 +56819,7 @@
       <formula>"in"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F47">
+  <conditionalFormatting sqref="F58">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"ft"</formula>
     </cfRule>
